--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
   <si>
     <t>Portugues – Vunesp</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Engenharia – Conceitos, Metodos Ageis, Modelos</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=5943&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796</t>
-  </si>
-  <si>
     <t>WAN</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>ITILv3 - ITILv4</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 27 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 9 | Qconcursos.com</t>
   </si>
   <si>
@@ -370,13 +364,22 @@
     <t>Cobit - CMMI</t>
   </si>
   <si>
-    <t xml:space="preserve">MPS-BR </t>
-  </si>
-  <si>
     <t>Inicio</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
+    <t>MPS-BR - ITIL</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos</t>
+  </si>
+  <si>
+    <t>RUP - Eng. Requisitos</t>
+  </si>
+  <si>
+    <t>Scrum - XP</t>
   </si>
 </sst>
 </file>
@@ -883,32 +886,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -918,7 +921,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -942,10 +945,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,15 +959,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="8">
         <v>44223</v>
@@ -972,82 +975,97 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1061,7 +1079,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1094,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1095,58 +1113,58 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
+      <c r="A6" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=5943&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A12" r:id="rId3"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=20&amp;subject_ids%5B%5D=1655"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=20&amp;subject_ids%5B%5D=1655"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1172,7 +1190,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1182,57 +1200,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1269,17 +1287,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1295,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,71 +1324,68 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;page=29"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;page=29"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1396,7 +1411,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1406,17 +1421,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1444,72 +1459,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1540,42 +1555,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1604,42 +1619,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>Portugues – Vunesp</t>
   </si>
@@ -91,9 +91,6 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201</t>
   </si>
   <si>
-    <t>Engenharia – Conceitos, Metodos Ageis, Modelos</t>
-  </si>
-  <si>
     <t>WAN</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942</t>
   </si>
   <si>
-    <t>Scrum – Usabilidade – Kanban</t>
-  </si>
-  <si>
     <t>Segurança</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>RUP</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;subject_ids%5B%5D=3055</t>
-  </si>
-  <si>
     <t>CMMI</t>
   </si>
   <si>
@@ -205,9 +196,6 @@
     <t>Java EE - todas bancas</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;discipline_ids%5B%5D=160&amp;discipline_ids%5B%5D=213&amp;discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=5943&amp;subject_ids%5B%5D=10652&amp;subject_ids%5B%5D=21306</t>
-  </si>
-  <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=5877</t>
   </si>
   <si>
@@ -376,17 +364,26 @@
     <t>Engenharia Conceitos</t>
   </si>
   <si>
-    <t>RUP - Eng. Requisitos</t>
-  </si>
-  <si>
     <t>Scrum - XP</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 6 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Scrum – XP</t>
+  </si>
+  <si>
+    <t>Engenharia – Conceitos</t>
+  </si>
+  <si>
+    <t>Requisitos - APF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +445,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -476,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,6 +504,9 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,32 +893,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -921,7 +928,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +952,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,15 +966,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="8">
         <v>44223</v>
@@ -975,97 +982,102 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1079,7 +1091,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1106,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1109,64 +1121,66 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
+      <c r="A10" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>51</v>
+      <c r="A11" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A12" r:id="rId2"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=20&amp;subject_ids%5B%5D=1655"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=20&amp;subject_ids%5B%5D=1655"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1190,7 +1204,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1200,57 +1214,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1287,17 +1301,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1324,47 +1338,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1372,12 +1386,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1425,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1421,17 +1435,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1459,72 +1473,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1555,42 +1569,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1619,42 +1633,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>Portugues – Vunesp</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Engenharia de Requisitos</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201</t>
-  </si>
-  <si>
     <t>WAN</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>APF</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 20 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Sistemas operacionais</t>
   </si>
   <si>
@@ -377,6 +371,15 @@
   </si>
   <si>
     <t>Requisitos - APF</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 31 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Segurança - Criptografia</t>
   </si>
 </sst>
 </file>
@@ -893,32 +896,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -928,7 +931,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -952,9 +955,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -966,15 +969,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8">
         <v>44223</v>
@@ -982,102 +985,107 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1099,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1114,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1115,69 +1123,69 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
+      <c r="A4" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=20&amp;subject_ids%5B%5D=1655"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;subject_ids%5B%5D=1655"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -1204,7 +1212,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1214,57 +1222,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1301,17 +1309,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1338,47 +1346,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1386,12 +1394,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1433,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1435,17 +1443,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1473,72 +1481,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1569,42 +1577,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1633,42 +1641,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>Portugues – Vunesp</t>
   </si>
@@ -151,24 +151,15 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942</t>
   </si>
   <si>
-    <t>Segurança</t>
-  </si>
-  <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753</t>
   </si>
   <si>
     <t>Segurança – Criptografia Certificados Digitais</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=17&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=6038</t>
-  </si>
-  <si>
     <t>Segurança – ISO 27000 series</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=18&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306</t>
-  </si>
-  <si>
     <t>RUP</t>
   </si>
   <si>
@@ -295,12 +286,6 @@
     <t>Essenciais</t>
   </si>
   <si>
-    <t>Rede</t>
-  </si>
-  <si>
-    <t>Banco de dados</t>
-  </si>
-  <si>
     <t>Modelagem-Tranformação</t>
   </si>
   <si>
@@ -376,10 +361,19 @@
     <t>Questões de Provas - Questões de Concursos - Página 31 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Segurança - Criptografia</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Segurança - Ataques</t>
+  </si>
+  <si>
+    <t>Fim</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 29 | Qconcursos.com</t>
   </si>
 </sst>
 </file>
@@ -426,14 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -451,6 +437,13 @@
     <font>
       <u/>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -483,7 +476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -498,18 +491,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,42 +890,42 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>8112</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +949,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,33 +963,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>107</v>
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="8">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7">
         <v>44223</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>44270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,32 +1007,32 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,52 +1047,42 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1114,7 +1106,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1124,17 +1116,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1144,37 +1136,37 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>48</v>
+      <c r="A11" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1177,7 @@
     <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
     <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
     <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;subject_ids%5B%5D=1655"/>
+    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -1212,7 +1204,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1222,7 +1214,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1252,7 +1244,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1262,7 +1254,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1309,17 +1301,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1346,12 +1338,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1361,32 +1353,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1394,12 +1386,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1415,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1425,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1443,24 +1435,13 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=33&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=10785&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=11347&amp;subject_ids%5B%5D=18037"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1496,7 +1477,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1521,32 +1502,32 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1564,70 +1545,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1640,43 +1557,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>42</v>
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
+    <hyperlink ref="A6" r:id="rId3"/>
+    <hyperlink ref="A8" r:id="rId4"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=33&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=10785&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=11347&amp;subject_ids%5B%5D=18037"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>46</v>
+      <c r="A5" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>47</v>
+      <c r="A6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1685,11 +1677,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=17&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=6038"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A9" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
+    <hyperlink ref="A8" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=29&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
-  <si>
-    <t>Portugues – Vunesp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -151,9 +148,6 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753</t>
-  </si>
-  <si>
     <t>Segurança – Criptografia Certificados Digitais</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>WAN-QoS - Cabeamento</t>
   </si>
   <si>
-    <t>Essenciais</t>
-  </si>
-  <si>
     <t>Modelagem-Tranformação</t>
   </si>
   <si>
@@ -361,9 +352,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 31 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Segurança - Criptografia</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
   </si>
   <si>
@@ -374,13 +362,64 @@
   </si>
   <si>
     <t>Questões de Provas - Questões de Concursos - Página 29 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Matérias</t>
+  </si>
+  <si>
+    <t>Portugues - Raciocinio logico</t>
+  </si>
+  <si>
+    <t>Matematica - 8112</t>
+  </si>
+  <si>
+    <t>27000 series - Criptografia</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Modelagem-Tranformação - BI</t>
+  </si>
+  <si>
+    <t>SQL Fundamentos - SQL comandos</t>
+  </si>
+  <si>
+    <t>Formas normais - Transações/Segurança</t>
+  </si>
+  <si>
+    <t>Gerencia de Projetos - ITIL</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos - Padrões de Projeto</t>
+  </si>
+  <si>
+    <t>CMMI - MPS-BR</t>
+  </si>
+  <si>
+    <t>Cobit - Engenharia conceitos</t>
+  </si>
+  <si>
+    <t>RUP - XML</t>
+  </si>
+  <si>
+    <t>8666/Pregão - Deficientes</t>
+  </si>
+  <si>
+    <t>SOA - JavaEE</t>
+  </si>
+  <si>
+    <t>Constitucional - Atos administrativos</t>
+  </si>
+  <si>
+    <t>Portugues – Multi bancas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +487,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -463,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -471,12 +518,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -494,16 +556,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -809,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,102 +889,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -925,7 +994,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -949,136 +1018,269 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="14">
+        <v>44223</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="12">
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14">
+        <v>44270</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="D7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B12" s="10"/>
+      <c r="D12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="D14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="D19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="7">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
-        <v>44270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="10"/>
+      <c r="D20" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>112</v>
-      </c>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="D24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1101,72 +1303,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>45</v>
+      <c r="A11" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1199,72 +1401,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1296,22 +1498,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1338,47 +1540,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1386,12 +1588,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1420,22 +1622,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1462,72 +1664,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1750,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,52 +1760,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1622,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,43 +1834,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>114</v>
+      <c r="A1" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>43</v>
+      <c r="A3" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>44</v>
+      <c r="A5" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>49</v>
+      <c r="A7" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1676,11 +1878,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A7" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=29&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
+    <hyperlink ref="A8" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=29&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,50 +23,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
   <si>
-    <t>Caderno RLM FCC</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?notebook_ids%5B%5D=4149853&amp;page=4</t>
-  </si>
-  <si>
-    <t>RLM-FCC</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;page=16</t>
-  </si>
-  <si>
-    <t>Caderno Vunesp matemática</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?notebook_ids%5B%5D=3719274&amp;page=25</t>
-  </si>
-  <si>
-    <t>Português – FCC</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=124&amp;scholarity_ids%5B%5D=3</t>
-  </si>
-  <si>
-    <t>Caderno RLM Vunesp</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?notebook_ids%5B%5D=4149955&amp;page=8</t>
-  </si>
-  <si>
     <t>GOF</t>
   </si>
   <si>
-    <t>Matemática FCC</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;page=20&amp;scholarity_ids%5B%5D=3</t>
-  </si>
-  <si>
     <t>SNMP</t>
   </si>
   <si>
@@ -226,9 +190,6 @@
     <t>Constitucional</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 23 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>8666 - Pregão</t>
   </si>
   <si>
@@ -238,30 +199,18 @@
     <t>Deficientes</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 10 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 19 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 12 | Qconcursos.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">8666 - 8112 </t>
   </si>
   <si>
     <t>Backup - RAIS/DAS/NAS/SAN</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre SNMP (Simple NetWork Management Protocol) em Redes de Computadores nível Superior | Qconcursos.com - Página 42</t>
-  </si>
-  <si>
     <t>SNMP - VPN</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 13 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 7 | Qconcursos.com</t>
   </si>
   <si>
@@ -376,15 +325,6 @@
     <t>27000 series - Criptografia</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Modelagem-Tranformação - BI</t>
-  </si>
-  <si>
-    <t>SQL Fundamentos - SQL comandos</t>
-  </si>
-  <si>
     <t>Formas normais - Transações/Segurança</t>
   </si>
   <si>
@@ -413,6 +353,51 @@
   </si>
   <si>
     <t>Portugues – Multi bancas</t>
+  </si>
+  <si>
+    <t>Raciocinio Logico - Multibancas</t>
+  </si>
+  <si>
+    <t>Sistemas de numeração - DotNet</t>
+  </si>
+  <si>
+    <t>Matematica - Multbancas</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 43 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 15 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 35 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Atos administrativos em Direito Administrativo para VUNESP | Qconcursos.com - Página 3</t>
+  </si>
+  <si>
+    <t>Atos administrativos (Vunesp)</t>
+  </si>
+  <si>
+    <t>Backup - RAID/DAS/NAS/SAN</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 27 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>SNMP - VPN - LDAP/AD</t>
+  </si>
+  <si>
+    <t>Modelagem e Tranformação - BI</t>
+  </si>
+  <si>
+    <t>BD Fundamentos - SQL comandos</t>
+  </si>
+  <si>
+    <t>LDAP - Active Directory</t>
   </si>
 </sst>
 </file>
@@ -510,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -533,12 +518,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -574,6 +570,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -876,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -899,129 +896,96 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
+      <c r="A7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="6">
+        <v>8112</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>8112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A10" r:id="rId5"/>
-    <hyperlink ref="A12" r:id="rId6"/>
-    <hyperlink ref="A14" r:id="rId7"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=23&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
-    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=21253"/>
-    <hyperlink ref="A22" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=23&amp;subject_ids%5B%5D=9"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=28&amp;subject_ids%5B%5D=9"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=43&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,27 +998,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
@@ -1062,16 +1026,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>111</v>
+        <v>98</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44272</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,59 +1044,65 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>117</v>
+        <v>106</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44273</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44277</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>118</v>
+      </c>
+      <c r="E6" s="12">
+        <v>44278</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>121</v>
+      </c>
+      <c r="E7" s="12">
+        <v>44279</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E9" s="11"/>
     </row>
@@ -1140,27 +1110,27 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -1168,119 +1138,125 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="11" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>94</v>
+      <c r="D17" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="D19" s="13" t="s">
-        <v>124</v>
+      <c r="D19" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>103</v>
+      <c r="D20" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="D24" s="13" t="s">
-        <v>127</v>
+      <c r="D24" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1303,72 +1279,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1367,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,72 +1377,68 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1474,10 +1446,8 @@
     <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
     <hyperlink ref="A8" r:id="rId2"/>
     <hyperlink ref="A14" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;page=42&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;publication_year%5B%5D=2010&amp;publication_year%5B%5D=2011&amp;publication_year%5B%5D=2012&amp;publication_year%5B%5D=2013&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=19&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;publication_year%5B%5D=2010&amp;publication_year%5B%5D=2011&amp;publication_year%5B%5D=2012&amp;publication_year%5B%5D=2013&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=19&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1498,22 +1468,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1540,47 +1510,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1588,12 +1558,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1609,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,28 +1592,39 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1664,72 +1645,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1760,52 +1741,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1835,42 +1816,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -52,15 +52,9 @@
     <t>WAN</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619</t>
-  </si>
-  <si>
     <t>Multimidia – QoS</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065</t>
-  </si>
-  <si>
     <t>IPv4 – Ipv6</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>Wireless</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269</t>
-  </si>
-  <si>
     <t>UML</t>
   </si>
   <si>
@@ -163,9 +154,6 @@
     <t>SOA - Web Services</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 33 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;page=34&amp;subject_ids%5B%5D=1654</t>
   </si>
   <si>
@@ -199,9 +187,6 @@
     <t>Deficientes</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 19 | Qconcursos.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">8666 - 8112 </t>
   </si>
   <si>
@@ -346,9 +331,6 @@
     <t>8666/Pregão - Deficientes</t>
   </si>
   <si>
-    <t>SOA - JavaEE</t>
-  </si>
-  <si>
     <t>Constitucional - Atos administrativos</t>
   </si>
   <si>
@@ -379,9 +361,6 @@
     <t>Atos administrativos (Vunesp)</t>
   </si>
   <si>
-    <t>Backup - RAID/DAS/NAS/SAN</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
   </si>
   <si>
@@ -398,6 +377,48 @@
   </si>
   <si>
     <t>LDAP - Active Directory</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 16 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>IPv4 - IPv6 - WAN</t>
+  </si>
+  <si>
+    <t>LAN/VLAN - Wireless - Cabeamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabeamento </t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 5 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Backup - RAID/DAS/NAS/SAN - QoS</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 12 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>SOAP - WSDL - UDDI</t>
+  </si>
+  <si>
+    <t>JavaEE</t>
+  </si>
+  <si>
+    <t>SOA - SOAP/WSDL/UDDI - REST</t>
+  </si>
+  <si>
+    <t>XML - JSON - Versionamento</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Versionamento</t>
   </si>
 </sst>
 </file>
@@ -886,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -896,52 +917,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -951,17 +972,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -982,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,27 +1019,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
@@ -1026,13 +1047,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
@@ -1044,7 +1065,7 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
@@ -1052,11 +1073,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
@@ -1064,11 +1085,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
@@ -1076,11 +1097,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
@@ -1088,49 +1109,57 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="11"/>
+        <v>119</v>
+      </c>
+      <c r="E8" s="12">
+        <v>44280</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="11"/>
+        <v>120</v>
+      </c>
+      <c r="E9" s="12">
+        <v>44281</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="11"/>
+      <c r="D10" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="12">
+        <v>44284</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="D11" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="12">
+        <v>44285</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="D12" s="13" t="s">
-        <v>123</v>
+      <c r="D12" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E12" s="11"/>
     </row>
@@ -1138,125 +1167,130 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="D15" s="11" t="s">
-        <v>102</v>
+      <c r="D15" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="11" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="D17" s="15" t="s">
-        <v>111</v>
+      <c r="D17" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>77</v>
+      <c r="D18" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B20" s="10"/>
-      <c r="D20" s="13" t="s">
-        <v>104</v>
+      <c r="D20" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="D21" s="11" t="s">
-        <v>86</v>
+      <c r="D21" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="13" t="s">
-        <v>107</v>
+      <c r="D25" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1284,7 +1318,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1294,57 +1328,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,56 +1432,67 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A14" r:id="rId3"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;publication_year%5B%5D=2010&amp;publication_year%5B%5D=2011&amp;publication_year%5B%5D=2012&amp;publication_year%5B%5D=2013&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=19&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;publication_year%5B%5D=2010&amp;publication_year%5B%5D=2011&amp;publication_year%5B%5D=2012&amp;publication_year%5B%5D=2013&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=24&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1473,17 +1518,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1510,47 +1555,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1558,12 +1603,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1642,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1607,17 +1652,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1645,72 +1690,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1728,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,52 +1786,75 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>46</v>
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1863,7 @@
     <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
     <hyperlink ref="A6" r:id="rId3"/>
     <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=33&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=10785&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=11347&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1816,42 +1884,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Banco de dados – Fundamentos</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273</t>
-  </si>
-  <si>
     <t>LAN-VLAN-ETHERNET</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>UML</t>
   </si>
   <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;page=12&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=70&amp;subject_ids%5B%5D=4536</t>
-  </si>
-  <si>
     <t>Javascript</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=293</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844</t>
-  </si>
-  <si>
     <t>Java EE - todas bancas</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>Formas Normais</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 38 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Gerencia de transações, segurança</t>
   </si>
   <si>
@@ -214,9 +196,6 @@
     <t>Modelagem-Tranformação</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 51 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Business Inteligence</t>
   </si>
   <si>
@@ -322,9 +301,6 @@
     <t>CMMI - MPS-BR</t>
   </si>
   <si>
-    <t>Cobit - Engenharia conceitos</t>
-  </si>
-  <si>
     <t>RUP - XML</t>
   </si>
   <si>
@@ -406,9 +382,6 @@
     <t>SOAP - WSDL - UDDI</t>
   </si>
   <si>
-    <t>JavaEE</t>
-  </si>
-  <si>
     <t>SOA - SOAP/WSDL/UDDI - REST</t>
   </si>
   <si>
@@ -418,7 +391,40 @@
     <t>XML</t>
   </si>
   <si>
-    <t>Versionamento</t>
+    <t>Versionamento - Gerencia de Configuração</t>
+  </si>
+  <si>
+    <t>BI - Big Data - ETL - Data Mining</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 65 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 75 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 10 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 45 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>JavaEE - JPA/Hibernate</t>
+  </si>
+  <si>
+    <t>Engenharia de Requisitos - APF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobit - </t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>JPA - Hibernate</t>
   </si>
 </sst>
 </file>
@@ -907,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -917,52 +923,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -972,17 +978,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1012,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,27 +1025,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
@@ -1047,13 +1053,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
@@ -1065,7 +1071,7 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
@@ -1073,11 +1079,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
@@ -1085,11 +1091,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
@@ -1097,11 +1103,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
@@ -1109,11 +1115,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E8" s="12">
         <v>44280</v>
@@ -1121,11 +1127,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E9" s="12">
         <v>44281</v>
@@ -1135,7 +1141,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
@@ -1143,11 +1149,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
@@ -1155,142 +1161,151 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="E12" s="12">
+        <v>44286</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="E13" s="12">
+        <v>44287</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44288</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="D15" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="11"/>
+      <c r="D15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="12">
+        <v>44289</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>97</v>
+      <c r="D16" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="D18" s="15" t="s">
-        <v>105</v>
+      <c r="D18" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="D19" s="11" t="s">
-        <v>72</v>
+      <c r="D19" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="D21" s="13" t="s">
-        <v>99</v>
+      <c r="D21" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>81</v>
+      <c r="D22" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
+      <c r="D26" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1318,7 +1333,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1328,57 +1343,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1447,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1442,7 +1457,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1452,37 +1467,37 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1518,17 +1533,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1555,12 +1570,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1570,32 +1585,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1603,12 +1618,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1657,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1652,17 +1667,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1695,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,77 +1710,77 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
+      <c r="A6" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
+      <c r="A8" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;page=12&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595"/>
-    <hyperlink ref="A8" r:id="rId3"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=38&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=51&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;page=15&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=65&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1773,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,47 +1801,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1834,27 +1849,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1862,8 +1892,10 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
     <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A8" r:id="rId4"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A20" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=5243"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1884,42 +1916,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Java</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=32&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Gerencia de Projetos</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Gerência de Projetos para FCC | Qconcursos.com - Página 29</t>
-  </si>
-  <si>
     <t>Padrões de Projeto</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>AOC - Sistemas Operacionais</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 46 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>BPM - UML</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 42 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre UML em Engenharia de Software | Qconcursos.com - Página 74</t>
-  </si>
-  <si>
     <t>Cobit - CMMI</t>
   </si>
   <si>
@@ -241,9 +229,6 @@
     <t>MPS-BR - ITIL</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Engenharia Conceitos</t>
   </si>
   <si>
@@ -316,9 +301,6 @@
     <t>Raciocinio Logico - Multibancas</t>
   </si>
   <si>
-    <t>Sistemas de numeração - DotNet</t>
-  </si>
-  <si>
     <t>Matematica - Multbancas</t>
   </si>
   <si>
@@ -421,10 +403,31 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>JPA - Hibernate</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 36 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 13 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 49 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>DotNET - C#</t>
+  </si>
+  <si>
+    <t>Sistemas de numeração - DotNet/C#</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre UML em Engenharia de Software | Qconcursos.com - Página 83</t>
+  </si>
+  <si>
+    <t>BPM - Java</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 37 | Qconcursos.com</t>
   </si>
 </sst>
 </file>
@@ -913,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -923,52 +926,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -978,17 +981,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1009,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,27 +1028,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
@@ -1053,13 +1056,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
@@ -1071,7 +1074,7 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
@@ -1079,11 +1082,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
@@ -1091,11 +1094,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
@@ -1103,11 +1106,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
@@ -1115,11 +1118,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" s="12">
         <v>44280</v>
@@ -1127,11 +1130,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E9" s="12">
         <v>44281</v>
@@ -1141,7 +1144,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
@@ -1149,11 +1152,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
@@ -1161,11 +1164,11 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E12" s="12">
         <v>44286</v>
@@ -1175,7 +1178,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E13" s="12">
         <v>44287</v>
@@ -1183,11 +1186,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E14" s="12">
         <v>44288</v>
@@ -1195,11 +1198,11 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E15" s="12">
         <v>44289</v>
@@ -1207,105 +1210,123 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="E16" s="12">
+        <v>44292</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="E17" s="12">
+        <v>44291</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="11"/>
+        <v>61</v>
+      </c>
+      <c r="E18" s="12">
+        <v>44293</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="E19" s="12">
+        <v>44294</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="E20" s="12">
+        <v>44295</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="E21" s="12">
+        <v>44298</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="D22" s="13" t="s">
-        <v>130</v>
+      <c r="D22" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B23" s="10"/>
-      <c r="D23" s="11" t="s">
-        <v>74</v>
+      <c r="D23" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1318,7 +1339,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1354,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1343,17 +1364,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1363,48 +1384,48 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=74&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=83&amp;subject_ids%5B%5D=2470"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -1447,7 +1468,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1457,7 +1478,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1467,7 +1488,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1477,7 +1498,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1487,17 +1508,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1533,23 +1554,23 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=28&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=46&amp;subject_ids%5B%5D=253&amp;subject_ids%5B%5D=254&amp;subject_ids%5B%5D=255&amp;subject_ids%5B%5D=256&amp;subject_ids%5B%5D=259&amp;subject_ids%5B%5D=1207&amp;subject_ids%5B%5D=1208&amp;subject_ids%5B%5D=1334&amp;subject_ids%5B%5D=1360&amp;subject_ids%5B%5D=1696&amp;subject_ids%5B%5D=2493&amp;subject_ids%5B%5D=2494&amp;subject_ids%5B%5D=2710&amp;subject_ids%5B%5D=2792&amp;subject_ids%5B%5D=2793&amp;subject_ids%5B%5D=3003&amp;subject_ids%5B%5D=3903&amp;subject_ids%5B%5D=5903&amp;subject_ids%5B%5D=6248&amp;subject_ids%5B%5D=16632"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=34&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=49&amp;subject_ids%5B%5D=253&amp;subject_ids%5B%5D=254&amp;subject_ids%5B%5D=255&amp;subject_ids%5B%5D=256&amp;subject_ids%5B%5D=259&amp;subject_ids%5B%5D=1207&amp;subject_ids%5B%5D=1208&amp;subject_ids%5B%5D=1334&amp;subject_ids%5B%5D=1360&amp;subject_ids%5B%5D=1696&amp;subject_ids%5B%5D=2493&amp;subject_ids%5B%5D=2494&amp;subject_ids%5B%5D=2710&amp;subject_ids%5B%5D=2792&amp;subject_ids%5B%5D=2793&amp;subject_ids%5B%5D=3003&amp;subject_ids%5B%5D=3903&amp;subject_ids%5B%5D=5903&amp;subject_ids%5B%5D=6248&amp;subject_ids%5B%5D=16632"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1560,7 +1581,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,12 +1591,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1585,32 +1606,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1618,20 +1639,20 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;page=29"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1657,7 +1678,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1667,17 +1688,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1731,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1720,57 +1741,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1788,10 +1809,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,43 +1826,43 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
+      <c r="A2" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1849,53 +1870,64 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A20" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=5243"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A20" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;subject_ids%5B%5D=5243"/>
+    <hyperlink ref="A22" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1916,42 +1948,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Java EE - todas bancas</t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=5877</t>
   </si>
   <si>
     <t>MPSBR</t>
@@ -916,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -926,52 +923,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -981,17 +978,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1014,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,27 +1025,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
@@ -1056,13 +1053,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
@@ -1074,7 +1071,7 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
@@ -1082,11 +1079,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
@@ -1094,11 +1091,11 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
@@ -1106,11 +1103,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
@@ -1118,11 +1115,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="12">
         <v>44280</v>
@@ -1130,11 +1127,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="12">
         <v>44281</v>
@@ -1144,7 +1141,7 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
@@ -1152,11 +1149,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
@@ -1164,11 +1161,11 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="12">
         <v>44286</v>
@@ -1178,7 +1175,7 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="12">
         <v>44287</v>
@@ -1186,11 +1183,11 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="12">
         <v>44288</v>
@@ -1198,11 +1195,11 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="12">
         <v>44289</v>
@@ -1210,11 +1207,11 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="12">
         <v>44292</v>
@@ -1222,11 +1219,11 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" s="12">
         <v>44291</v>
@@ -1234,11 +1231,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="12">
         <v>44293</v>
@@ -1246,11 +1243,11 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="12">
         <v>44294</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="11" t="s">
@@ -1274,7 +1271,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="12">
         <v>44298</v>
@@ -1282,49 +1279,51 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="E22" s="12">
+        <v>44299</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D27" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="11"/>
     </row>
@@ -1354,7 +1353,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1364,17 +1363,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1384,17 +1383,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1404,17 +1403,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1467,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1478,7 +1477,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1488,7 +1487,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1498,7 +1497,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1508,17 +1507,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1554,17 +1553,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1580,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,12 +1590,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1606,7 +1605,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1615,23 +1614,23 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
+      <c r="A6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1639,12 +1638,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1653,6 +1652,7 @@
     <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
     <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
     <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1688,17 +1688,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1741,17 +1741,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1761,37 +1761,37 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1857,12 +1857,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1870,52 +1870,52 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1948,12 +1948,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1963,7 +1963,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -394,9 +394,6 @@
     <t>Engenharia de Requisitos - APF</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobit - </t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>Questões de Provas - Questões de Concursos - Página 37 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Cobit - Container/Docker</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>78</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="12">
         <v>44294</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="12">
         <v>44298</v>
@@ -1295,9 +1295,11 @@
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="11"/>
+        <v>133</v>
+      </c>
+      <c r="E23" s="12">
+        <v>44300</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1383,7 +1385,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1563,7 +1565,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1579,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1607,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1634,7 +1636,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1643,16 +1647,17 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1827,7 +1832,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1900,17 +1905,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1309,9 @@
       <c r="D24" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="12">
+        <v>44301</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
@@ -1340,7 +1342,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -46,9 +46,6 @@
     <t>RAID - NAS-DAS-SAN</t>
   </si>
   <si>
-    <t>Engenharia de Requisitos</t>
-  </si>
-  <si>
     <t>WAN</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942</t>
   </si>
   <si>
-    <t>Segurança – Criptografia Certificados Digitais</t>
-  </si>
-  <si>
-    <t>Segurança – ISO 27000 series</t>
-  </si>
-  <si>
     <t>RUP</t>
   </si>
   <si>
@@ -106,12 +97,6 @@
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=7&amp;subject_ids%5B%5D=12778</t>
   </si>
   <si>
-    <t>Análise de Vulnerabilidade e Gestão de Riscos </t>
-  </si>
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=293</t>
-  </si>
-  <si>
     <t>Java EE - todas bancas</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 6 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Scrum – XP</t>
-  </si>
-  <si>
     <t>Engenharia – Conceitos</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>Fim</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 29 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Matérias</t>
   </si>
   <si>
@@ -283,9 +262,6 @@
     <t>CMMI - MPS-BR</t>
   </si>
   <si>
-    <t>RUP - XML</t>
-  </si>
-  <si>
     <t>8666/Pregão - Deficientes</t>
   </si>
   <si>
@@ -391,9 +367,6 @@
     <t>JavaEE - JPA/Hibernate</t>
   </si>
   <si>
-    <t>Engenharia de Requisitos - APF</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -425,6 +398,42 @@
   </si>
   <si>
     <t>Cobit - Container/Docker</t>
+  </si>
+  <si>
+    <t>Scrum – XP (CESPE)</t>
+  </si>
+  <si>
+    <t>TDD - DDD</t>
+  </si>
+  <si>
+    <t>Engenharia de Requisitos (Cespe)</t>
+  </si>
+  <si>
+    <t>Gestão de configuração/Git (Cespe)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Gerência de Configuração em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 8</t>
+  </si>
+  <si>
+    <t>Engenharia de Requisitos - Gestão de config./Git</t>
+  </si>
+  <si>
+    <t>27000 series - ISSO IEC 15408</t>
+  </si>
+  <si>
+    <t>Gerencia de Riscos - Criptografia</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 14</t>
+  </si>
+  <si>
+    <t>Segurança – ISO 27000 series (Cespe)</t>
+  </si>
+  <si>
+    <t>Análise de Vulnerabilidade e Gestão de Riscos  (Cespe)</t>
+  </si>
+  <si>
+    <t>Segurança – Criptografia Certificados Digitais (Cespe)</t>
   </si>
 </sst>
 </file>
@@ -522,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -556,12 +565,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -598,6 +620,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -913,7 +939,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -923,52 +949,52 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -978,17 +1004,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1009,327 +1035,413 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="14">
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E8" s="12">
         <v>44280</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E9" s="12">
         <v>44281</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E12" s="12">
         <v>44286</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E13" s="12">
         <v>44287</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12">
         <v>44288</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E15" s="12">
         <v>44289</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="15"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" s="12">
         <v>44292</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="13"/>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E17" s="12">
         <v>44291</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E18" s="12">
         <v>44293</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E19" s="12">
         <v>44294</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="15"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="12">
         <v>44295</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E21" s="12">
         <v>44298</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E22" s="12">
         <v>44299</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E23" s="12">
         <v>44300</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E24" s="12">
         <v>44301</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E25" s="12">
+        <v>44302</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="E26" s="12">
+        <v>44303</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="16">
+        <v>44305</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="12">
+        <v>44306</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1339,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,81 +1469,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=83&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=83&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1439,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1466,62 +1589,62 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1557,17 +1680,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1594,62 +1717,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1808,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1695,17 +1818,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1733,72 +1856,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1829,47 +1952,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1877,52 +2000,52 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1945,7 +2068,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,42 +2078,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1999,10 +2122,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A8" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=29&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=6038"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=7&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Segurança – Criptografia Certificados Digitais (Cespe)</t>
+  </si>
+  <si>
+    <t>Portugues - CESPE</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 19</t>
   </si>
 </sst>
 </file>
@@ -926,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,88 +954,99 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>82</v>
+      <c r="A3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
+      <c r="A7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>8112</v>
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>88</v>
+      <c r="A15" s="6">
+        <v>8112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=28&amp;subject_ids%5B%5D=9"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=43&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=28&amp;subject_ids%5B%5D=9"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=43&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=19&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1037,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="167">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -418,9 +418,6 @@
     <t>Engenharia de Requisitos - Gestão de config./Git</t>
   </si>
   <si>
-    <t>27000 series - ISSO IEC 15408</t>
-  </si>
-  <si>
     <t>Gerencia de Riscos - Criptografia</t>
   </si>
   <si>
@@ -440,6 +437,93 @@
   </si>
   <si>
     <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 19</t>
+  </si>
+  <si>
+    <t>Portugues - WS SOAP REST GraphQL</t>
+  </si>
+  <si>
+    <t>Algebra relacional - SQL</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 4</t>
+  </si>
+  <si>
+    <t>Raciocinio Logico - CESPE</t>
+  </si>
+  <si>
+    <t>LGPD</t>
+  </si>
+  <si>
+    <t>Questões de Legislação Federal - Lei nº 13.709 de 2018 - Lei Geral de Proteção de Dados Pessoais - LGPD ou LGPDP para Concurso | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Raciocinio logico - Servidores de aplicação - LGPD</t>
+  </si>
+  <si>
+    <t>JEE (JPA, EJB, JSF, JMS e JTA), JVM, Hibernate</t>
+  </si>
+  <si>
+    <t>UML 2.x e BPM (BPMN).</t>
+  </si>
+  <si>
+    <t>Docker e Kubernetes.</t>
+  </si>
+  <si>
+    <t>HTML, CSS, UX, Ajax,(Bootstrap, angular, VueJS e React)</t>
+  </si>
+  <si>
+    <t>Analise e Projeto - Teste(engenharia)</t>
+  </si>
+  <si>
+    <t>Padroes de Projeto - Grasp - Solid</t>
+  </si>
+  <si>
+    <t>BI - BigData - OLAP - ETL</t>
+  </si>
+  <si>
+    <t>Scrum, XP, TDD, Modelagem ágil e Kanban.</t>
+  </si>
+  <si>
+    <t>Ciclos ed vida - DDD</t>
+  </si>
+  <si>
+    <t>27000 series - ISO IEC 15408</t>
+  </si>
+  <si>
+    <t>Gerencia de riscos - 27000 series - ISO IEC 15408</t>
+  </si>
+  <si>
+    <t>JMS/Mensageria - Arquiteturas de BD</t>
+  </si>
+  <si>
+    <t>Marco Civil - Leis</t>
+  </si>
+  <si>
+    <t>Estatuto Social - Lingua inglesa</t>
+  </si>
+  <si>
+    <t>Segurança Conceitos - Criptografia - Autenticações</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Java - Dot Net - OO</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 5</t>
+  </si>
+  <si>
+    <t>Transações BD</t>
+  </si>
+  <si>
+    <t>Arquitetura BD CESPE</t>
+  </si>
+  <si>
+    <t>Modelagem BD</t>
+  </si>
+  <si>
+    <t>BD Arquitetura - BD Modelagem - BD Transações</t>
   </si>
 </sst>
 </file>
@@ -932,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,12 +1039,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -974,62 +1058,72 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>83</v>
+      <c r="A7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
+      <c r="A9" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>8112</v>
+      <c r="A15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>88</v>
+      <c r="A17" s="6">
+        <v>8112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1037,16 +1131,17 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=28&amp;subject_ids%5B%5D=9"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=43&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=28&amp;subject_ids%5B%5D=9"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=43&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
     <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=19&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1054,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1159,7 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1102,9 +1197,11 @@
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="H2" s="12">
+        <v>44307</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1119,8 +1216,12 @@
       <c r="E3" s="12">
         <v>44272</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="G3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="12">
+        <v>44308</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -1133,8 +1234,12 @@
       <c r="E4" s="12">
         <v>44273</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="G4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="12">
+        <v>44309</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1147,7 +1252,9 @@
       <c r="E5" s="12">
         <v>44277</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,7 +1268,9 @@
       <c r="E6" s="12">
         <v>44278</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="15" t="s">
+        <v>157</v>
+      </c>
       <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,7 +1284,9 @@
       <c r="E7" s="12">
         <v>44279</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1189,7 +1300,9 @@
       <c r="E8" s="12">
         <v>44280</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,7 +1316,9 @@
       <c r="E9" s="12">
         <v>44281</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,7 +1330,9 @@
       <c r="E10" s="12">
         <v>44284</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1229,7 +1346,9 @@
       <c r="E11" s="12">
         <v>44285</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1362,9 @@
       <c r="E12" s="12">
         <v>44286</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>156</v>
+      </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1255,7 +1376,9 @@
       <c r="E13" s="12">
         <v>44287</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1269,7 +1392,9 @@
       <c r="E14" s="12">
         <v>44288</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G14" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,7 +1408,9 @@
       <c r="E15" s="12">
         <v>44289</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1297,7 +1424,9 @@
       <c r="E16" s="12">
         <v>44292</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1311,7 +1440,9 @@
       <c r="E17" s="12">
         <v>44291</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,7 +1456,9 @@
       <c r="E18" s="12">
         <v>44293</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,7 +1472,9 @@
       <c r="E19" s="12">
         <v>44294</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="11" t="s">
+        <v>159</v>
+      </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1353,7 +1488,9 @@
       <c r="E20" s="12">
         <v>44295</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1367,7 +1504,9 @@
       <c r="E21" s="12">
         <v>44298</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>158</v>
+      </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,7 +1563,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1439,12 +1578,12 @@
       <c r="E27" s="16">
         <v>44305</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E28" s="12">
         <v>44306</v>
@@ -1807,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,11 +1987,22 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1860,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,6 +2091,36 @@
         <v>68</v>
       </c>
     </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;page=15&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595"/>
@@ -1949,6 +2129,9 @@
     <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
     <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
     <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A19" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=280"/>
+    <hyperlink ref="A21" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1959,7 +2142,7 @@
   <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2020,6 +2203,11 @@
         <v>103</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
@@ -2075,6 +2263,7 @@
     <hyperlink ref="A20" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;subject_ids%5B%5D=5243"/>
     <hyperlink ref="A22" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
     <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2105,7 +2294,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2115,7 +2304,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2125,12 +2314,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -524,6 +524,33 @@
   </si>
   <si>
     <t>BD Arquitetura - BD Modelagem - BD Transações</t>
+  </si>
+  <si>
+    <t>SQL/Mysql/PostGres  - CESPE</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>Marco Civil</t>
+  </si>
+  <si>
+    <t>L12737 (planalto.gov.br)</t>
+  </si>
+  <si>
+    <t>5 Lei nº 12.737/2012 (Lei de Delitos Informáticos):</t>
+  </si>
+  <si>
+    <t>Decreto nº 9.637/2018 (Política Nacional de Segurança da Informação): Capitulo II</t>
+  </si>
+  <si>
+    <t>D9637 (planalto.gov.br)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Lei nº 12.527 de 2011 - Lei de Acesso à Informação e Decreto nº 7.724 de 2012 em Legislação Federal para CESPE / CEBRASPE | Qconcursos.com - Página 13</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Lei 12.965 de 2014 - Marco Civil da Internet em Legislação Federal | Qconcursos.com - Página 5</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,7 +1282,9 @@
       <c r="G5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12">
+        <v>44312</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1271,7 +1300,9 @@
       <c r="G6" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12">
+        <v>44313</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1946,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,12 +2028,56 @@
         <v>143</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
     <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
+    <hyperlink ref="A16" r:id="rId6" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2010,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,6 +2194,16 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2132,6 +2217,7 @@
     <hyperlink ref="A17" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
     <hyperlink ref="A19" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=280"/>
     <hyperlink ref="A21" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
+    <hyperlink ref="A23" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="176">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2225,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,6 +2337,16 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2350,6 +2360,7 @@
     <hyperlink ref="A22" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
     <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
     <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="179">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -196,12 +196,6 @@
     <t>BPM - UML</t>
   </si>
   <si>
-    <t>Modelagem de Processos de Negocio - BPM</t>
-  </si>
-  <si>
-    <t>Questões de Provas - Questões de Concursos - Página 42 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Cobit - CMMI</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>JPA - Hibernate</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 36 | Qconcursos.com</t>
   </si>
   <si>
@@ -388,9 +379,6 @@
     <t>Sistemas de numeração - DotNet/C#</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre UML em Engenharia de Software | Qconcursos.com - Página 83</t>
-  </si>
-  <si>
     <t>BPM - Java</t>
   </si>
   <si>
@@ -472,9 +460,6 @@
     <t>HTML, CSS, UX, Ajax,(Bootstrap, angular, VueJS e React)</t>
   </si>
   <si>
-    <t>Analise e Projeto - Teste(engenharia)</t>
-  </si>
-  <si>
     <t>Padroes de Projeto - Grasp - Solid</t>
   </si>
   <si>
@@ -551,6 +536,30 @@
   </si>
   <si>
     <t>Questões de Concurso sobre Lei 12.965 de 2014 - Marco Civil da Internet em Legislação Federal | Qconcursos.com - Página 5</t>
+  </si>
+  <si>
+    <t>Analise e Projeto - Testes(engenharia)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre UML em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 9</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Modelagem de Processos de Negócio (BPM) para CESPE / CEBRASPE | Qconcursos.com - Página 5</t>
+  </si>
+  <si>
+    <t>Modelagem de Processos de Negocio - BPM - CESPE</t>
+  </si>
+  <si>
+    <t>BPMN - Geral</t>
+  </si>
+  <si>
+    <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 8 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 20 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JEE (JPA, EJB, JSF, JMS e JTA), JVM - JPA - Hibernate</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1066,17 +1075,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1086,17 +1095,17 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1111,7 +1120,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1121,7 +1130,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1131,7 +1140,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1146,12 +1155,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1186,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,22 +1201,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1218,13 +1227,13 @@
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H2" s="12">
         <v>44307</v>
@@ -1235,16 +1244,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H3" s="12">
         <v>44308</v>
@@ -1256,13 +1265,13 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
@@ -1274,13 +1283,13 @@
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H5" s="12">
         <v>44312</v>
@@ -1292,13 +1301,13 @@
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
@@ -1310,15 +1319,17 @@
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="H7" s="12">
+        <v>44314</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1326,15 +1337,17 @@
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" s="12">
         <v>44280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="H8" s="12">
+        <v>44315</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1342,13 +1355,13 @@
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="12">
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="H9" s="12"/>
     </row>
@@ -1356,13 +1369,13 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H10" s="12"/>
     </row>
@@ -1372,13 +1385,13 @@
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -1388,13 +1401,13 @@
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="12">
         <v>44286</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -1402,13 +1415,13 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" s="12">
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -1418,13 +1431,13 @@
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="12">
         <v>44288</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -1434,13 +1447,13 @@
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="12">
         <v>44289</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -1450,13 +1463,13 @@
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="12">
         <v>44292</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -1466,19 +1479,19 @@
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="12">
         <v>44291</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="10"/>
       <c r="D18" s="11" t="s">
@@ -1488,29 +1501,29 @@
         <v>44293</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" s="12">
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="11" t="s">
@@ -1520,7 +1533,7 @@
         <v>44295</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1530,23 +1543,23 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E21" s="12">
         <v>44298</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="12">
         <v>44299</v>
@@ -1556,11 +1569,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E23" s="12">
         <v>44300</v>
@@ -1570,11 +1583,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="12">
         <v>44301</v>
@@ -1584,7 +1597,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E25" s="12">
         <v>44302</v>
@@ -1594,7 +1607,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1604,7 +1617,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E27" s="16">
         <v>44305</v>
@@ -1614,7 +1627,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E28" s="12">
         <v>44306</v>
@@ -1641,7 +1654,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,12 +1669,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1671,12 +1684,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1686,17 +1699,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1716,17 +1729,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1735,10 +1748,10 @@
     <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
     <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;subject_ids%5B%5D=9170"/>
     <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;page=83&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
@@ -1781,7 +1794,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1791,7 +1804,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1801,7 +1814,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1826,12 +1839,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1877,7 +1890,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1891,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,7 +1922,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1919,7 +1932,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1934,42 +1947,53 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>116</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=42"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=2&amp;page=5"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1979,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1995,7 +2019,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2005,12 +2029,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2020,52 +2044,52 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2127,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2113,17 +2137,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2133,7 +2157,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2153,7 +2177,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2163,42 +2187,42 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2227,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2267,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2286,7 +2310,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2296,12 +2320,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2311,27 +2335,27 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2346,10 +2370,10 @@
     <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
     <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
     <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
-    <hyperlink ref="A20" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;subject_ids%5B%5D=5243"/>
-    <hyperlink ref="A22" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A20" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2370,7 +2394,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2380,7 +2404,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2390,7 +2414,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2400,12 +2424,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -538,9 +538,6 @@
     <t>Questões de Concurso sobre Lei 12.965 de 2014 - Marco Civil da Internet em Legislação Federal | Qconcursos.com - Página 5</t>
   </si>
   <si>
-    <t>Analise e Projeto - Testes(engenharia)</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre UML em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 9</t>
   </si>
   <si>
@@ -560,6 +557,21 @@
   </si>
   <si>
     <t xml:space="preserve"> JEE (JPA, EJB, JSF, JMS e JTA), JVM - JPA - Hibernate</t>
+  </si>
+  <si>
+    <t>Teste de software (Cespe)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Teste de Software em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 11</t>
+  </si>
+  <si>
+    <t>Orientação a objetos</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Orientação a Objetos em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 10</t>
+  </si>
+  <si>
+    <t>Analise e Projeto/OO - Testes(engenharia)</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1207,7 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1361,9 +1373,11 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>182</v>
+      </c>
+      <c r="H9" s="12">
+        <v>44316</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -1651,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1713,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1740,6 +1754,16 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1752,9 +1776,10 @@
     <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
     <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
     <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A18" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -1947,22 +1972,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2249,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2345,12 +2370,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2361,6 +2386,16 @@
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2374,6 +2409,7 @@
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
     <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
     <hyperlink ref="A20" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=843"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
   <si>
-    <t>GOF</t>
-  </si>
-  <si>
     <t>SNMP</t>
   </si>
   <si>
@@ -568,10 +565,19 @@
     <t>Orientação a objetos</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Orientação a Objetos em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 10</t>
-  </si>
-  <si>
     <t>Analise e Projeto/OO - Testes(engenharia)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Orientação a Objetos em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 18</t>
+  </si>
+  <si>
+    <t>Portugues - Raciocinio Logico</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Padrões de projeto (Design Patterns) em Arquitetura de Software para CESPE / CEBRASPE | Qconcursos.com - Página 11</t>
+  </si>
+  <si>
+    <t>GOF (CESPE)</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1087,72 +1093,72 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1162,17 +1168,17 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1197,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,39 +1219,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14">
         <v>44223</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="12">
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H2" s="12">
         <v>44307</v>
@@ -1253,19 +1259,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="12">
         <v>44272</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="12">
         <v>44308</v>
@@ -1277,13 +1283,13 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="12">
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
@@ -1291,17 +1297,17 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="12">
         <v>44277</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="12">
         <v>44312</v>
@@ -1309,17 +1315,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="12">
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
@@ -1327,17 +1333,17 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="12">
         <v>44279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="12">
         <v>44314</v>
@@ -1345,17 +1351,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="12">
         <v>44280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="12">
         <v>44315</v>
@@ -1363,17 +1369,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="12">
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
@@ -1383,45 +1389,47 @@
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="H10" s="12">
+        <v>44317</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>126</v>
+      <c r="G11" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="12">
         <v>44286</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -1429,23 +1437,23 @@
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="12">
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="12">
         <v>44288</v>
@@ -1457,137 +1465,139 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E15" s="12">
         <v>44289</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>156</v>
+      <c r="G15" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="10"/>
       <c r="D16" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="12">
         <v>44292</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>147</v>
+      <c r="G16" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="12">
         <v>44291</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>148</v>
+      <c r="G17" s="11" t="s">
+        <v>146</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="10"/>
       <c r="D18" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="12">
         <v>44293</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>146</v>
+      <c r="G18" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="12">
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="12">
         <v>44295</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>150</v>
+      <c r="G20" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="12">
         <v>44298</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>153</v>
+      <c r="G21" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="12">
         <v>44299</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="12">
         <v>44300</v>
@@ -1597,11 +1607,11 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="12">
         <v>44301</v>
@@ -1611,7 +1621,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="12">
         <v>44302</v>
@@ -1621,7 +1631,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1631,7 +1641,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="16">
         <v>44305</v>
@@ -1641,7 +1651,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="12">
         <v>44306</v>
@@ -1667,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,105 +1688,105 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
     <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1798,7 +1808,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1806,7 +1816,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1814,62 +1824,62 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1900,22 +1910,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1942,72 +1952,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2039,82 +2049,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2147,112 +2157,112 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2277,7 +2287,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,47 +2297,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2335,62 +2345,62 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2409,7 +2419,7 @@
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
     <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
     <hyperlink ref="A20" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=843"/>
+    <hyperlink ref="A24" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2430,42 +2440,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -421,18 +421,12 @@
     <t>Portugues - CESPE</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 19</t>
-  </si>
-  <si>
     <t>Portugues - WS SOAP REST GraphQL</t>
   </si>
   <si>
     <t>Algebra relacional - SQL</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 4</t>
-  </si>
-  <si>
     <t>Raciocinio Logico - CESPE</t>
   </si>
   <si>
@@ -466,9 +460,6 @@
     <t>Scrum, XP, TDD, Modelagem ágil e Kanban.</t>
   </si>
   <si>
-    <t>Ciclos ed vida - DDD</t>
-  </si>
-  <si>
     <t>27000 series - ISO IEC 15408</t>
   </si>
   <si>
@@ -578,6 +569,15 @@
   </si>
   <si>
     <t>GOF (CESPE)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 29</t>
+  </si>
+  <si>
+    <t>Ciclos de vida - DDD</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 7</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1113,12 +1113,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1191,8 +1191,8 @@
     <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
     <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
     <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
-    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=19&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=4"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=29&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=7"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -1251,7 +1251,7 @@
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H2" s="12">
         <v>44307</v>
@@ -1271,7 +1271,7 @@
         <v>44272</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" s="12">
         <v>44308</v>
@@ -1289,7 +1289,7 @@
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
@@ -1307,7 +1307,7 @@
         <v>44277</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="12">
         <v>44312</v>
@@ -1325,7 +1325,7 @@
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
@@ -1343,7 +1343,7 @@
         <v>44279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="12">
         <v>44314</v>
@@ -1361,7 +1361,7 @@
         <v>44280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H8" s="12">
         <v>44315</v>
@@ -1379,7 +1379,7 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
@@ -1395,7 +1395,7 @@
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H10" s="12">
         <v>44317</v>
@@ -1413,9 +1413,11 @@
         <v>44285</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>179</v>
+      </c>
+      <c r="H11" s="12">
+        <v>44319</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -1443,7 +1445,7 @@
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -1459,7 +1461,7 @@
         <v>44288</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -1475,7 +1477,7 @@
         <v>44289</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -1491,7 +1493,7 @@
         <v>44292</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -1507,7 +1509,7 @@
         <v>44291</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -1523,7 +1525,7 @@
         <v>44293</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -1539,7 +1541,7 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -1555,7 +1557,7 @@
         <v>44295</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1571,7 +1573,7 @@
         <v>44298</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1587,7 +1589,7 @@
         <v>44299</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -1631,7 +1633,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1677,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,12 +1690,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1723,7 +1725,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1768,12 +1770,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1982,22 +1984,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2079,52 +2081,52 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2227,27 +2229,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2257,7 +2259,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2380,12 +2382,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2400,12 +2402,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -394,12 +394,6 @@
     <t>Engenharia de Requisitos (Cespe)</t>
   </si>
   <si>
-    <t>Gestão de configuração/Git (Cespe)</t>
-  </si>
-  <si>
-    <t>Questões de Concurso sobre Gerência de Configuração em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 8</t>
-  </si>
-  <si>
     <t>Engenharia de Requisitos - Gestão de config./Git</t>
   </si>
   <si>
@@ -578,6 +572,9 @@
   </si>
   <si>
     <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 7</t>
+  </si>
+  <si>
+    <t>Gestão de configuração/Git - principais bancas</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1093,12 +1090,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1113,12 +1110,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1203,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1248,7 @@
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H2" s="12">
         <v>44307</v>
@@ -1271,7 +1268,7 @@
         <v>44272</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="12">
         <v>44308</v>
@@ -1289,7 +1286,7 @@
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
@@ -1307,7 +1304,7 @@
         <v>44277</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="12">
         <v>44312</v>
@@ -1325,7 +1322,7 @@
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
@@ -1343,7 +1340,7 @@
         <v>44279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H7" s="12">
         <v>44314</v>
@@ -1361,7 +1358,7 @@
         <v>44280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H8" s="12">
         <v>44315</v>
@@ -1379,7 +1376,7 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
@@ -1395,7 +1392,7 @@
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" s="12">
         <v>44317</v>
@@ -1413,7 +1410,7 @@
         <v>44285</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H11" s="12">
         <v>44319</v>
@@ -1431,9 +1428,11 @@
         <v>44286</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="H12" s="12">
+        <v>44320</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -1445,7 +1444,7 @@
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -1461,7 +1460,7 @@
         <v>44288</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -1477,7 +1476,7 @@
         <v>44289</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -1493,7 +1492,7 @@
         <v>44292</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -1509,7 +1508,7 @@
         <v>44291</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -1525,7 +1524,7 @@
         <v>44293</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -1541,7 +1540,7 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -1557,7 +1556,7 @@
         <v>44295</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1573,7 +1572,7 @@
         <v>44298</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1589,7 +1588,7 @@
         <v>44299</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H22" s="12"/>
     </row>
@@ -1623,7 +1622,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E25" s="12">
         <v>44302</v>
@@ -1633,7 +1632,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1653,7 +1652,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E28" s="12">
         <v>44306</v>
@@ -1680,7 +1679,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,12 +1689,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1725,7 +1724,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1760,22 +1759,22 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1785,10 +1784,10 @@
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
     <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
     <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A16" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1984,22 +1983,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2081,52 +2080,52 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2229,27 +2228,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2259,7 +2258,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2382,12 +2381,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2402,12 +2401,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2452,7 +2451,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2462,7 +2461,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2472,12 +2471,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -439,9 +439,6 @@
     <t>UML 2.x e BPM (BPMN).</t>
   </si>
   <si>
-    <t>Docker e Kubernetes.</t>
-  </si>
-  <si>
     <t>HTML, CSS, UX, Ajax,(Bootstrap, angular, VueJS e React)</t>
   </si>
   <si>
@@ -460,9 +457,6 @@
     <t>Gerencia de riscos - 27000 series - ISO IEC 15408</t>
   </si>
   <si>
-    <t>JMS/Mensageria - Arquiteturas de BD</t>
-  </si>
-  <si>
     <t>Marco Civil - Leis</t>
   </si>
   <si>
@@ -475,9 +469,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Java - Dot Net - OO</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 5</t>
   </si>
   <si>
@@ -575,6 +566,18 @@
   </si>
   <si>
     <t>Gestão de configuração/Git - principais bancas</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 14 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java - Dot Net </t>
+  </si>
+  <si>
+    <t>JMS/Mensageria - Docker e Kubernetes - DevOps</t>
+  </si>
+  <si>
+    <t>https://kubernetes.io/pt-br/docs/concepts/overview/components/</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1115,7 +1118,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1201,7 +1204,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1289,7 @@
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
@@ -1322,7 +1325,7 @@
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
@@ -1376,7 +1379,7 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
@@ -1392,7 +1395,7 @@
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="12">
         <v>44317</v>
@@ -1410,7 +1413,7 @@
         <v>44285</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H11" s="12">
         <v>44319</v>
@@ -1444,9 +1447,11 @@
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="H13" s="12">
+        <v>44321</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1460,7 +1465,7 @@
         <v>44288</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -1475,8 +1480,8 @@
       <c r="E15" s="12">
         <v>44289</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>138</v>
+      <c r="G15" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -1491,8 +1496,8 @@
       <c r="E16" s="12">
         <v>44292</v>
       </c>
-      <c r="G16" s="13" t="s">
-        <v>150</v>
+      <c r="G16" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -1507,8 +1512,8 @@
       <c r="E17" s="12">
         <v>44291</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>142</v>
+      <c r="G17" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="H17" s="12"/>
     </row>
@@ -1523,8 +1528,8 @@
       <c r="E18" s="12">
         <v>44293</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>181</v>
+      <c r="G18" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -1540,7 +1545,7 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -1555,8 +1560,8 @@
       <c r="E20" s="12">
         <v>44295</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>148</v>
+      <c r="G20" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1571,8 +1576,8 @@
       <c r="E21" s="12">
         <v>44298</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>144</v>
+      <c r="G21" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1587,9 +1592,7 @@
       <c r="E22" s="12">
         <v>44299</v>
       </c>
-      <c r="G22" s="11" t="s">
-        <v>147</v>
-      </c>
+      <c r="G22" s="11"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1632,7 +1635,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1667,6 +1670,9 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
+      <c r="G30" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1679,7 +1685,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1689,12 +1695,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1704,7 +1710,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1724,7 +1730,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1759,7 +1765,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1769,12 +1775,12 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1783,11 +1789,11 @@
     <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
     <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A18" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1983,22 +1989,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2090,42 +2096,42 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2228,27 +2234,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2258,7 +2264,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2381,12 +2387,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2401,12 +2407,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>https://kubernetes.io/pt-br/docs/concepts/overview/components/</t>
+  </si>
+  <si>
+    <t>BI - BigData - OLAP - ETL - CESPE</t>
+  </si>
+  <si>
+    <t>Scrum, XP, TDD, Modelagem ágil e Kanban. - CESPE</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
   </si>
 </sst>
 </file>
@@ -1203,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1476,9 @@
       <c r="G14" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>44322</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1481,9 +1492,11 @@
         <v>44289</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="H15" s="12">
+        <v>44323</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1499,7 +1512,9 @@
       <c r="G16" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>44324</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1529,7 +1544,7 @@
         <v>44293</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="H18" s="12"/>
     </row>
@@ -1682,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,6 +1796,16 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1794,9 +1819,10 @@
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
     <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
     <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -2151,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,6 +2296,16 @@
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2284,6 +2320,7 @@
     <hyperlink ref="A19" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=280"/>
     <hyperlink ref="A21" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
     <hyperlink ref="A23" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
+    <hyperlink ref="A26" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="187">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Gerencia de Riscos - Criptografia</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 14</t>
-  </si>
-  <si>
     <t>Segurança – ISO 27000 series (Cespe)</t>
   </si>
   <si>
@@ -454,18 +451,9 @@
     <t>27000 series - ISO IEC 15408</t>
   </si>
   <si>
-    <t>Gerencia de riscos - 27000 series - ISO IEC 15408</t>
-  </si>
-  <si>
     <t>Marco Civil - Leis</t>
   </si>
   <si>
-    <t>Estatuto Social - Lingua inglesa</t>
-  </si>
-  <si>
-    <t>Segurança Conceitos - Criptografia - Autenticações</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
   </si>
   <si>
@@ -559,9 +547,6 @@
     <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 29</t>
   </si>
   <si>
-    <t>Ciclos de vida - DDD</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 7</t>
   </si>
   <si>
@@ -571,9 +556,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 14 | Qconcursos.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Java - Dot Net </t>
-  </si>
-  <si>
     <t>JMS/Mensageria - Docker e Kubernetes - DevOps</t>
   </si>
   <si>
@@ -587,6 +569,21 @@
   </si>
   <si>
     <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Java - Dot Net - Ciclos de vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança Conceitos - Criptografia - </t>
+  </si>
+  <si>
+    <t>Estatuto Social -</t>
+  </si>
+  <si>
+    <t>DDD - Autenticações -  Lingua inglesa - Gerencia de riscos</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 21</t>
   </si>
 </sst>
 </file>
@@ -1102,12 +1099,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1122,12 +1119,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1213,7 +1210,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,7 +1257,7 @@
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="12">
         <v>44307</v>
@@ -1280,7 +1277,7 @@
         <v>44272</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" s="12">
         <v>44308</v>
@@ -1298,7 +1295,7 @@
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
@@ -1316,7 +1313,7 @@
         <v>44277</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" s="12">
         <v>44312</v>
@@ -1334,7 +1331,7 @@
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
@@ -1352,7 +1349,7 @@
         <v>44279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="12">
         <v>44314</v>
@@ -1370,7 +1367,7 @@
         <v>44280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="12">
         <v>44315</v>
@@ -1388,7 +1385,7 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
@@ -1404,7 +1401,7 @@
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="12">
         <v>44317</v>
@@ -1422,7 +1419,7 @@
         <v>44285</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="12">
         <v>44319</v>
@@ -1456,7 +1453,7 @@
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H13" s="12">
         <v>44321</v>
@@ -1474,7 +1471,7 @@
         <v>44288</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="12">
         <v>44322</v>
@@ -1492,7 +1489,7 @@
         <v>44289</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="12">
         <v>44323</v>
@@ -1510,7 +1507,7 @@
         <v>44292</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="12">
         <v>44324</v>
@@ -1527,10 +1524,12 @@
       <c r="E17" s="12">
         <v>44291</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="G17" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="12">
+        <v>44326</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1543,10 +1542,12 @@
       <c r="E18" s="12">
         <v>44293</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="G18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H18" s="12">
+        <v>44327</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1560,7 +1561,7 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="H19" s="12"/>
     </row>
@@ -1576,7 +1577,7 @@
         <v>44295</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H20" s="12"/>
     </row>
@@ -1592,7 +1593,7 @@
         <v>44298</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -1650,7 +1651,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
@@ -1686,7 +1687,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +1700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1710,12 +1711,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1725,7 +1726,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1745,7 +1746,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1780,7 +1781,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1790,22 +1791,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2015,22 +2016,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2112,52 +2113,52 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2260,27 +2261,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2290,7 +2291,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2300,7 +2301,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2424,12 +2425,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2444,12 +2445,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2473,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,7 +2495,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2504,7 +2505,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2514,12 +2515,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2530,8 +2531,8 @@
     <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=293"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=7&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=7&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId6"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="8"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -574,16 +574,16 @@
     <t>Java - Dot Net - Ciclos de vida</t>
   </si>
   <si>
-    <t xml:space="preserve">Segurança Conceitos - Criptografia - </t>
-  </si>
-  <si>
-    <t>Estatuto Social -</t>
-  </si>
-  <si>
     <t>DDD - Autenticações -  Lingua inglesa - Gerencia de riscos</t>
   </si>
   <si>
     <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 21</t>
+  </si>
+  <si>
+    <t>Segurança Conceitos - Criptografia - Estatuto Social</t>
+  </si>
+  <si>
+    <t>Conceitos de segurança - CESPE</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
         <v>44293</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H18" s="12">
         <v>44327</v>
@@ -1561,9 +1561,11 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="12"/>
+        <v>185</v>
+      </c>
+      <c r="H19" s="12">
+        <v>44328</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1592,9 +1594,7 @@
       <c r="E21" s="12">
         <v>44298</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>184</v>
-      </c>
+      <c r="G21" s="11"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,10 +2472,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2520,21 +2520,29 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=7&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -580,10 +580,16 @@
     <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 21</t>
   </si>
   <si>
-    <t>Segurança Conceitos - Criptografia - Estatuto Social</t>
-  </si>
-  <si>
     <t>Conceitos de segurança - CESPE</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 17 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Segurança Conceitos - Criptografia</t>
+  </si>
+  <si>
+    <t>27000 series - ISO IEC 15408 -  Estatuto Social</t>
   </si>
 </sst>
 </file>
@@ -1209,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1567,7 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H19" s="12">
         <v>44328</v>
@@ -1579,9 +1585,11 @@
         <v>44295</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="12"/>
+        <v>188</v>
+      </c>
+      <c r="H20" s="12">
+        <v>44329</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2474,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2518,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2525,7 +2533,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2537,10 +2545,10 @@
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
-    <hyperlink ref="A11" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=17&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>REST</t>
   </si>
   <si>
-    <t>SOAP - WSDL - UDDI</t>
-  </si>
-  <si>
     <t>SOA - SOAP/WSDL/UDDI - REST</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>GOF (CESPE)</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 29</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 7</t>
   </si>
   <si>
@@ -590,6 +584,12 @@
   </si>
   <si>
     <t>27000 series - ISO IEC 15408 -  Estatuto Social</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 35</t>
+  </si>
+  <si>
+    <t>SOAP - REST (Cespe)</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,12 +1105,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1125,12 +1125,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1203,8 +1203,8 @@
     <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
     <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
     <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
-    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=29&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=7"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=7"/>
+    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=35&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -1213,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,9 +1227,10 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>68</v>
       </c>
@@ -1240,16 +1241,17 @@
         <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>68</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>40</v>
       </c>
@@ -1263,13 +1265,16 @@
         <v>44271</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="12">
         <v>44307</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="12">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
@@ -1283,13 +1288,14 @@
         <v>44272</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="12">
         <v>44308</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="14">
         <v>44270</v>
@@ -1301,13 +1307,14 @@
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
@@ -1319,13 +1326,14 @@
         <v>44277</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="12">
         <v>44312</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
@@ -1337,13 +1345,14 @@
         <v>44278</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="12">
         <v>44313</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
@@ -1355,13 +1364,14 @@
         <v>44279</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H7" s="12">
         <v>44314</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -1373,13 +1383,14 @@
         <v>44280</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="12">
         <v>44315</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
@@ -1391,47 +1402,50 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" s="12">
         <v>44284</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="12">
         <v>44317</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="12">
         <v>44285</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="12">
         <v>44319</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>49</v>
       </c>
@@ -1443,13 +1457,14 @@
         <v>44286</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="12">
         <v>44320</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
@@ -1459,13 +1474,14 @@
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H13" s="12">
         <v>44321</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>50</v>
       </c>
@@ -1477,31 +1493,33 @@
         <v>44288</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="12">
         <v>44322</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="12">
         <v>44289</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="12">
         <v>44323</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>54</v>
       </c>
@@ -1513,13 +1531,14 @@
         <v>44292</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H16" s="12">
         <v>44324</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>55</v>
       </c>
@@ -1531,13 +1550,14 @@
         <v>44291</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H17" s="12">
         <v>44326</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>56</v>
       </c>
@@ -1549,31 +1569,33 @@
         <v>44293</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H18" s="12">
         <v>44327</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="12">
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H19" s="12">
         <v>44328</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>59</v>
       </c>
@@ -1585,27 +1607,29 @@
         <v>44295</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H20" s="12">
         <v>44329</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="12">
         <v>44298</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>60</v>
       </c>
@@ -1618,22 +1642,24 @@
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="12">
         <v>44300</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
@@ -1646,56 +1672,61 @@
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="12">
         <v>44302</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="12">
         <v>44303</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="16">
         <v>44305</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E28" s="12">
         <v>44306</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1719,22 +1750,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1754,12 +1785,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1789,7 +1820,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1799,22 +1830,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1998,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2040,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2024,22 +2055,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2059,7 +2090,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2121,52 +2152,52 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2235,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2214,12 +2245,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2234,7 +2265,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2254,7 +2285,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2269,27 +2300,27 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2299,7 +2330,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2309,7 +2340,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2340,7 +2371,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,7 +2386,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2398,12 +2429,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2413,7 +2444,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2423,7 +2454,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2433,17 +2464,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2453,12 +2484,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2470,9 +2501,9 @@
     <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
     <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
-    <hyperlink ref="A20" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
-    <hyperlink ref="A24" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
+    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
+    <hyperlink ref="A24" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=18037"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2503,7 +2534,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2513,32 +2544,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -454,9 +454,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 5</t>
-  </si>
-  <si>
     <t>Transações BD</t>
   </si>
   <si>
@@ -541,9 +538,6 @@
     <t>GOF (CESPE)</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Raciocínio Lógico para CESPE / CEBRASPE | Qconcursos.com - Página 7</t>
-  </si>
-  <si>
     <t>Gestão de configuração/Git - principais bancas</t>
   </si>
   <si>
@@ -590,6 +584,9 @@
   </si>
   <si>
     <t>SOAP - REST (Cespe)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 12</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1130,7 +1127,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1203,8 +1200,8 @@
     <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
     <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
     <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
-    <hyperlink ref="A8" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=7"/>
-    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=35&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=35&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -1216,7 +1213,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1290,9 @@
       <c r="H3" s="12">
         <v>44308</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="12">
+        <v>44331</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -1307,12 +1306,14 @@
         <v>44273</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H4" s="12">
         <v>44309</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="12">
+        <v>44333</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1402,7 +1403,7 @@
         <v>44281</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" s="12">
         <v>44316</v>
@@ -1438,7 +1439,7 @@
         <v>44285</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="12">
         <v>44319</v>
@@ -1474,7 +1475,7 @@
         <v>44287</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H13" s="12">
         <v>44321</v>
@@ -1550,7 +1551,7 @@
         <v>44291</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H17" s="12">
         <v>44326</v>
@@ -1569,7 +1570,7 @@
         <v>44293</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H18" s="12">
         <v>44327</v>
@@ -1588,7 +1589,7 @@
         <v>44294</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H19" s="12">
         <v>44328</v>
@@ -1607,7 +1608,7 @@
         <v>44295</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H20" s="12">
         <v>44329</v>
@@ -1726,7 +1727,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="G30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1750,12 +1751,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1765,7 +1766,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1785,7 +1786,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1820,7 +1821,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1830,22 +1831,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2055,22 +2056,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2162,42 +2163,42 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2219,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,37 +2301,37 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2340,7 +2341,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2356,11 +2357,11 @@
     <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
     <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
     <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A17" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A19" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=280"/>
-    <hyperlink ref="A21" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
-    <hyperlink ref="A23" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
-    <hyperlink ref="A26" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
+    <hyperlink ref="A23" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
+    <hyperlink ref="A26" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
+    <hyperlink ref="A19" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=12&amp;subject_ids%5B%5D=280"/>
+    <hyperlink ref="A17" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A21" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2429,7 +2430,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2464,12 +2465,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2484,12 +2485,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2549,7 +2550,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2559,12 +2560,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1332,9 @@
       <c r="H5" s="12">
         <v>44312</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="12">
+        <v>44334</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1351,7 +1353,9 @@
       <c r="H6" s="12">
         <v>44313</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="12">
+        <v>44335</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1370,7 +1374,9 @@
       <c r="H7" s="12">
         <v>44314</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="12">
+        <v>44336</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -2110,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,53 +2157,53 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2206,11 +2212,11 @@
     <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
     <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
-    <hyperlink ref="A16" r:id="rId6" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
+    <hyperlink ref="A18" r:id="rId6" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2220,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2372,7 +2378,7 @@
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="189">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 12</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1216,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1489,9 @@
       <c r="H13" s="12">
         <v>44321</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1581,7 +1586,9 @@
       <c r="H18" s="12">
         <v>44327</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -2375,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,6 +2504,16 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2511,6 +2528,7 @@
     <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
     <hyperlink ref="A24" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
     <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A26" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="188">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -578,9 +578,6 @@
   </si>
   <si>
     <t>27000 series - ISO IEC 15408 -  Estatuto Social</t>
-  </si>
-  <si>
-    <t>Questões de Concurso sobre Português para CESPE / CEBRASPE nível Superior | Qconcursos.com - Página 35</t>
   </si>
   <si>
     <t>SOAP - REST (Cespe)</t>
@@ -1084,7 +1081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1107,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1203,8 +1200,8 @@
     <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
     <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
     <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
-    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=35&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021"/>
+    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;my_questions=not_resolved&amp;page=5&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -1215,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1490,7 +1487,7 @@
         <v>44321</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1587,7 +1584,7 @@
         <v>44327</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2329,7 +2326,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2443,7 +2440,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="176">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -253,12 +253,6 @@
     <t>CMMI - MPS-BR</t>
   </si>
   <si>
-    <t>8666/Pregão - Deficientes</t>
-  </si>
-  <si>
-    <t>Constitucional - Atos administrativos</t>
-  </si>
-  <si>
     <t>Portugues – Multi bancas</t>
   </si>
   <si>
@@ -409,12 +403,6 @@
     <t>Portugues - CESPE</t>
   </si>
   <si>
-    <t>Portugues - WS SOAP REST GraphQL</t>
-  </si>
-  <si>
-    <t>Algebra relacional - SQL</t>
-  </si>
-  <si>
     <t>Raciocinio Logico - CESPE</t>
   </si>
   <si>
@@ -424,33 +412,12 @@
     <t>Questões de Legislação Federal - Lei nº 13.709 de 2018 - Lei Geral de Proteção de Dados Pessoais - LGPD ou LGPDP para Concurso | Qconcursos.com</t>
   </si>
   <si>
-    <t>Raciocinio logico - Servidores de aplicação - LGPD</t>
-  </si>
-  <si>
-    <t>JEE (JPA, EJB, JSF, JMS e JTA), JVM, Hibernate</t>
-  </si>
-  <si>
-    <t>UML 2.x e BPM (BPMN).</t>
-  </si>
-  <si>
     <t>HTML, CSS, UX, Ajax,(Bootstrap, angular, VueJS e React)</t>
   </si>
   <si>
-    <t>Padroes de Projeto - Grasp - Solid</t>
-  </si>
-  <si>
-    <t>BI - BigData - OLAP - ETL</t>
-  </si>
-  <si>
-    <t>Scrum, XP, TDD, Modelagem ágil e Kanban.</t>
-  </si>
-  <si>
     <t>27000 series - ISO IEC 15408</t>
   </si>
   <si>
-    <t>Marco Civil - Leis</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
   </si>
   <si>
@@ -463,9 +430,6 @@
     <t>Modelagem BD</t>
   </si>
   <si>
-    <t>BD Arquitetura - BD Modelagem - BD Transações</t>
-  </si>
-  <si>
     <t>SQL/Mysql/PostGres  - CESPE</t>
   </si>
   <si>
@@ -505,9 +469,6 @@
     <t>BPMN - Geral</t>
   </si>
   <si>
-    <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 8 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 20 | Qconcursos.com</t>
   </si>
   <si>
@@ -523,15 +484,9 @@
     <t>Orientação a objetos</t>
   </si>
   <si>
-    <t>Analise e Projeto/OO - Testes(engenharia)</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Orientação a Objetos em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 18</t>
   </si>
   <si>
-    <t>Portugues - Raciocinio Logico</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Padrões de projeto (Design Patterns) em Arquitetura de Software para CESPE / CEBRASPE | Qconcursos.com - Página 11</t>
   </si>
   <si>
@@ -544,9 +499,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 14 | Qconcursos.com</t>
   </si>
   <si>
-    <t>JMS/Mensageria - Docker e Kubernetes - DevOps</t>
-  </si>
-  <si>
     <t>https://kubernetes.io/pt-br/docs/concepts/overview/components/</t>
   </si>
   <si>
@@ -559,34 +511,46 @@
     <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Java - Dot Net - Ciclos de vida</t>
-  </si>
-  <si>
-    <t>DDD - Autenticações -  Lingua inglesa - Gerencia de riscos</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 21</t>
   </si>
   <si>
     <t>Conceitos de segurança - CESPE</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 17 | Qconcursos.com</t>
-  </si>
-  <si>
-    <t>Segurança Conceitos - Criptografia</t>
-  </si>
-  <si>
-    <t>27000 series - ISO IEC 15408 -  Estatuto Social</t>
-  </si>
-  <si>
     <t>SOAP - REST (Cespe)</t>
   </si>
   <si>
     <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 12</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 11 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 21 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Licitações - Deficientes</t>
+  </si>
+  <si>
+    <t>Constitucional - Penal</t>
+  </si>
+  <si>
+    <t>SOA - Webservices SOAP/Restful</t>
+  </si>
+  <si>
+    <t>XP/Scrum - UML - RUP</t>
+  </si>
+  <si>
+    <t>Processos de software - Metricas de software - APF</t>
+  </si>
+  <si>
+    <t>BPM/BPMN - CMMI</t>
+  </si>
+  <si>
+    <t>Docker - Kubernates</t>
+  </si>
+  <si>
+    <t>Cobit 2019 - ITIL v4</t>
   </si>
 </sst>
 </file>
@@ -736,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -777,6 +741,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1081,7 +1052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1092,7 +1063,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1102,17 +1073,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -1122,7 +1093,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1132,7 +1103,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1147,7 +1118,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1157,7 +1128,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1167,7 +1138,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1182,12 +1153,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1212,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,15 +1209,15 @@
         <v>68</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>68</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1258,18 +1229,12 @@
       <c r="D2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="12">
-        <v>44271</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="G2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="12">
-        <v>44307</v>
-      </c>
-      <c r="I2" s="12">
-        <v>44330</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -1281,18 +1246,12 @@
       <c r="D3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="12">
-        <v>44272</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="12">
-        <v>44308</v>
-      </c>
-      <c r="I3" s="12">
-        <v>44331</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H3" s="12"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -1300,20 +1259,14 @@
         <v>44270</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="12">
-        <v>44273</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="G4" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="12">
-        <v>44309</v>
-      </c>
-      <c r="I4" s="12">
-        <v>44333</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1321,20 +1274,14 @@
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="12">
-        <v>44277</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="G5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="12">
-        <v>44312</v>
-      </c>
-      <c r="I5" s="12">
-        <v>44334</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -1342,20 +1289,14 @@
       </c>
       <c r="B6" s="10"/>
       <c r="D6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="12">
-        <v>44278</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="12">
-        <v>44313</v>
-      </c>
-      <c r="I6" s="12">
-        <v>44335</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="G6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -1363,20 +1304,14 @@
       </c>
       <c r="B7" s="10"/>
       <c r="D7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="12">
-        <v>44279</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="12">
-        <v>44314</v>
-      </c>
-      <c r="I7" s="12">
-        <v>44336</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1384,18 +1319,14 @@
       </c>
       <c r="B8" s="10"/>
       <c r="D8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="12">
-        <v>44280</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="12">
-        <v>44315</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="G8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -1403,35 +1334,27 @@
       </c>
       <c r="B9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="12">
-        <v>44281</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="H9" s="12">
-        <v>44316</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="G9" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
       <c r="D10" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="12">
-        <v>44284</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="12">
-        <v>44317</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>98</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="G10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
@@ -1439,18 +1362,14 @@
       </c>
       <c r="B11" s="10"/>
       <c r="D11" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="12">
-        <v>44285</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="12">
-        <v>44319</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>99</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="G11" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -1458,37 +1377,27 @@
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="12">
-        <v>44286</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="12">
-        <v>44320</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>87</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="G12" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
       <c r="D13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="12">
-        <v>44287</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="G13" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="12">
-        <v>44321</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>187</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1498,16 +1407,12 @@
       <c r="D14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="12">
-        <v>44288</v>
-      </c>
+      <c r="E14" s="12"/>
       <c r="G14" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="12">
-        <v>44322</v>
-      </c>
-      <c r="I14" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -1515,18 +1420,14 @@
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="12">
-        <v>44289</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H15" s="12">
-        <v>44323</v>
-      </c>
-      <c r="I15" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="G15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1536,16 +1437,12 @@
       <c r="D16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="12">
-        <v>44292</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="12">
-        <v>44324</v>
-      </c>
-      <c r="I16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
@@ -1555,16 +1452,12 @@
       <c r="D17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="12">
-        <v>44291</v>
-      </c>
+      <c r="E17" s="12"/>
       <c r="G17" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="12">
-        <v>44326</v>
-      </c>
-      <c r="I17" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -1574,18 +1467,12 @@
       <c r="D18" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="12">
-        <v>44293</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="H18" s="12">
-        <v>44327</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>187</v>
-      </c>
+      <c r="E18" s="12"/>
+      <c r="G18" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
@@ -1593,18 +1480,12 @@
       </c>
       <c r="B19" s="10"/>
       <c r="D19" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="12">
-        <v>44294</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="12">
-        <v>44328</v>
-      </c>
-      <c r="I19" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
@@ -1614,16 +1495,10 @@
       <c r="D20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="12">
-        <v>44295</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="12">
-        <v>44329</v>
-      </c>
-      <c r="I20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -1631,14 +1506,12 @@
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="12">
-        <v>44298</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -1648,12 +1521,10 @@
       <c r="D22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="12">
-        <v>44299</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
@@ -1661,14 +1532,12 @@
       </c>
       <c r="B23" s="10"/>
       <c r="D23" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="12">
-        <v>44300</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
@@ -1678,56 +1547,46 @@
       <c r="D24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="12">
-        <v>44301</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="18"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="12">
-        <v>44302</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="12">
-        <v>44303</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="10"/>
+        <v>130</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="18"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="16">
-        <v>44305</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="10"/>
+        <v>118</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="12">
-        <v>44306</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29" s="17"/>
@@ -1737,7 +1596,7 @@
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="G30" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1761,22 +1620,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1786,7 +1645,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1796,17 +1655,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1831,7 +1690,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1841,22 +1700,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1772,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1923,7 +1782,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1933,7 +1792,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1958,12 +1817,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +1868,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2026,7 +1885,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +1900,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2051,7 +1910,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2066,22 +1925,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2101,7 +1960,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +1971,7 @@
     <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
     <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
     <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=2&amp;page=5"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=8"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2138,7 +1997,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2148,12 +2007,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2163,52 +2022,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2246,7 +2105,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2256,17 +2115,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2276,7 +2135,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2296,7 +2155,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2311,37 +2170,37 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2351,12 +2210,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2256,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2440,22 +2299,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2465,7 +2324,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2475,17 +2334,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2495,22 +2354,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2556,42 +2415,42 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2460,7 @@
     <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
     <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
     <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=17&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="176">
   <si>
     <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
   </si>
@@ -1183,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1308,7 @@
       </c>
       <c r="E7" s="12"/>
       <c r="G7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="19"/>
@@ -1322,8 +1322,8 @@
         <v>91</v>
       </c>
       <c r="E8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>88</v>
+      <c r="G8" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="18"/>
@@ -1337,8 +1337,8 @@
         <v>92</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>72</v>
+      <c r="G9" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="18"/>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E10" s="12"/>
       <c r="G10" s="13" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="18"/>
@@ -1365,8 +1365,8 @@
         <v>99</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="G11" s="13" t="s">
-        <v>171</v>
+      <c r="G11" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="18"/>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E12" s="12"/>
       <c r="G12" s="13" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="18"/>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="G13" s="11" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="18"/>
@@ -1408,8 +1408,8 @@
         <v>72</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="G14" s="11" t="s">
-        <v>54</v>
+      <c r="G14" s="13" t="s">
+        <v>170</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="18"/>
@@ -1423,8 +1423,8 @@
         <v>107</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="G15" s="11" t="s">
-        <v>173</v>
+      <c r="G15" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="18"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="G16" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="18"/>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="18"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="E18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="18"/>
@@ -1483,8 +1483,10 @@
         <v>113</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19"/>
+      <c r="G19" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="12"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1496,8 +1498,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,8 +1513,10 @@
         <v>114</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="19"/>
+      <c r="G21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="12"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1522,8 +1528,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="19"/>
+      <c r="G22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="12"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="176">
-  <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;scholarity_ids%5B%5D=3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="164">
   <si>
     <t>SNMP</t>
   </si>
@@ -133,18 +130,9 @@
     <t>Questões de Provas - Questões de Concursos - Página 24 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Constitucional</t>
-  </si>
-  <si>
-    <t>8666 - Pregão</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 34 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Deficientes</t>
-  </si>
-  <si>
     <t xml:space="preserve">8666 - 8112 </t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 11 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 28 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>AOC - Sistemas Operacionais</t>
   </si>
   <si>
@@ -253,30 +238,9 @@
     <t>CMMI - MPS-BR</t>
   </si>
   <si>
-    <t>Portugues – Multi bancas</t>
-  </si>
-  <si>
-    <t>Raciocinio Logico - Multibancas</t>
-  </si>
-  <si>
-    <t>Matematica - Multbancas</t>
-  </si>
-  <si>
-    <t>Questões de Provas - Questões de Concursos - Página 43 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 15 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 35 | Qconcursos.com</t>
-  </si>
-  <si>
-    <t>Questões de Concurso sobre Atos administrativos em Direito Administrativo para VUNESP | Qconcursos.com - Página 3</t>
-  </si>
-  <si>
-    <t>Atos administrativos (Vunesp)</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
   </si>
   <si>
@@ -400,12 +364,6 @@
     <t>Segurança – Criptografia Certificados Digitais (Cespe)</t>
   </si>
   <si>
-    <t>Portugues - CESPE</t>
-  </si>
-  <si>
-    <t>Raciocinio Logico - CESPE</t>
-  </si>
-  <si>
     <t>LGPD</t>
   </si>
   <si>
@@ -551,6 +509,12 @@
   </si>
   <si>
     <t>Cobit 2019 - ITIL v4</t>
+  </si>
+  <si>
+    <t>Portugues - FCC</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Português para FCC nível Superior | Qconcursos.com - Página 2</t>
   </si>
 </sst>
 </file>
@@ -700,12 +664,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1052,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,119 +1024,56 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
+      <c r="A2" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>8112</v>
-      </c>
+      <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=28&amp;subject_ids%5B%5D=9"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=43&amp;subject_ids%5B%5D=808&amp;subject_ids%5B%5D=16814"/>
-    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;subject_ids%5B%5D=21253"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=35&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=868&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=8608&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16250&amp;subject_ids%5B%5D=16262&amp;subject_ids%5B%5D=16266&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=5"/>
-    <hyperlink ref="A8" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021"/>
-    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;my_questions=not_resolved&amp;page=5&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1183,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,412 +1097,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="13">
+        <v>44223</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="G2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="11">
+        <v>44355</v>
+      </c>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13">
+        <v>44270</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="D7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="G8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="D10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="17"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="D11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="G11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="G12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="D13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="G13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="D14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="G14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="D15" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="G15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="E16" s="11"/>
+      <c r="G16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="D17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="D18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="D19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="G21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="G22" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="D23" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="14">
-        <v>44223</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="G2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="G3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14">
-        <v>44270</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="G4" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="G5" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="G6" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="G7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="G8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="G9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="D10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="G10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="D11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="G11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="D12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="G12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="D13" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="G13" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="D14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="G14" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="D15" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="G15" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="D16" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="G16" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="G17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="G18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="D19" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="G19" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="D20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="G20" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="D21" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="G21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="D22" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="G22" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="18"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="D23" s="13" t="s">
+      <c r="E25" s="11"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="D24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="18"/>
+      <c r="E26" s="11"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="18"/>
+      <c r="D27" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="18"/>
+      <c r="D28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1628,102 +1528,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>154</v>
+      <c r="A2" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>157</v>
+      <c r="A4" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
+      <c r="A5" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>85</v>
+      <c r="A6" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>144</v>
+      <c r="A8" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>117</v>
+      <c r="A9" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>90</v>
+      <c r="A10" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>19</v>
+      <c r="A11" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
+      <c r="A12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>64</v>
+      <c r="A14" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
+      <c r="A16" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>151</v>
+      <c r="A18" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>161</v>
+      <c r="A20" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1759,78 +1659,78 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>80</v>
+      <c r="A6" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>96</v>
+      <c r="A8" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>90</v>
+      <c r="A10" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
+      <c r="A12" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>52</v>
+      <c r="A14" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>94</v>
+      <c r="A16" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1861,22 +1761,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
+      <c r="A2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>111</v>
+      <c r="A4" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1903,72 +1803,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>94</v>
+      <c r="A2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>110</v>
+      <c r="A4" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
+      <c r="A5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
+      <c r="A6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>145</v>
+      <c r="A8" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>166</v>
+      <c r="A10" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>61</v>
+      <c r="A12" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>109</v>
+      <c r="A14" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2000,82 +1900,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>85</v>
+      <c r="A2" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>84</v>
+      <c r="A4" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
+      <c r="A6" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>128</v>
+      <c r="A10" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>142</v>
+      <c r="A12" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>143</v>
+      <c r="A14" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>138</v>
+      <c r="A16" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>141</v>
+      <c r="A18" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2108,122 +2008,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>105</v>
+      <c r="A2" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>103</v>
+      <c r="A4" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>80</v>
+      <c r="A6" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>104</v>
+      <c r="A8" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>106</v>
+      <c r="A12" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>65</v>
+      <c r="A14" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>110</v>
+      <c r="A17" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>165</v>
+      <c r="A19" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
+      <c r="A21" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>52</v>
+      <c r="A23" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>94</v>
+      <c r="A26" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2259,125 +2159,125 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>115</v>
+      <c r="A2" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
+      <c r="A8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>131</v>
+      <c r="A12" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
+      <c r="A16" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>61</v>
+      <c r="A18" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>148</v>
+      <c r="A20" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
+      <c r="A22" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>153</v>
+      <c r="A24" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>105</v>
+      <c r="A26" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2412,53 +2312,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>66</v>
+      <c r="A1" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
+      <c r="A2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>124</v>
+      <c r="A3" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>90</v>
+      <c r="A4" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>122</v>
+      <c r="A5" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>167</v>
+      <c r="A6" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>123</v>
+      <c r="A7" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>162</v>
+      <c r="A8" s="3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>163</v>
+      <c r="A10" s="7" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>105</v>
+      <c r="A11" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="166">
   <si>
     <t>SNMP</t>
   </si>
@@ -515,6 +515,12 @@
   </si>
   <si>
     <t>Questões de Concurso sobre Português para FCC nível Superior | Qconcursos.com - Página 2</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 4 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>8112 - Principais bancas</t>
   </si>
 </sst>
 </file>
@@ -664,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,6 +715,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1013,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,8 +1041,15 @@
         <v>163</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1071,9 +1087,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=63&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=9"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1081,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1167,9 @@
       <c r="G3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="11">
+        <v>44356</v>
+      </c>
       <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
   <si>
     <t>SNMP</t>
   </si>
@@ -521,6 +521,24 @@
   </si>
   <si>
     <t>8112 - Principais bancas</t>
+  </si>
+  <si>
+    <t>Matematica Vunesp</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Licitações - Constitucional</t>
+  </si>
+  <si>
+    <t>Constitucional - Principais bancas</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Deficientes - Penal</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1041,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,13 +1070,24 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1088,9 +1117,11 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
     <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=63&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=9"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1099,7 +1130,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,9 +1213,11 @@
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="11"/>
+        <v>168</v>
+      </c>
+      <c r="H4" s="11">
+        <v>44357</v>
+      </c>
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1197,9 +1230,11 @@
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="H5" s="11">
+        <v>44361</v>
+      </c>
       <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1211,8 +1246,8 @@
         <v>83</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="10" t="s">
-        <v>161</v>
+      <c r="G6" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="18"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
   <si>
     <t>SNMP</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>Deficientes - Penal</t>
+  </si>
+  <si>
+    <t>Gerencia de Projetos - PMBoK</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1133,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,10 +1249,12 @@
         <v>83</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="11">
+        <v>44362</v>
+      </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1261,8 +1266,8 @@
         <v>74</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="G7" s="10" t="s">
-        <v>74</v>
+      <c r="G7" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="18"/>
@@ -1277,7 +1282,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="17"/>
@@ -1292,7 +1297,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1304,8 +1309,8 @@
         <v>86</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="G10" s="12" t="s">
-        <v>76</v>
+      <c r="G10" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
@@ -1319,8 +1324,8 @@
         <v>87</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="G11" s="10" t="s">
-        <v>74</v>
+      <c r="G11" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
@@ -1334,8 +1339,8 @@
         <v>75</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="12" t="s">
-        <v>67</v>
+      <c r="G12" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1347,8 +1352,8 @@
         <v>76</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="10" t="s">
-        <v>80</v>
+      <c r="G13" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
@@ -1362,8 +1367,8 @@
         <v>67</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="12" t="s">
-        <v>156</v>
+      <c r="G14" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
@@ -1378,7 +1383,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -1393,7 +1398,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1407,8 +1412,8 @@
         <v>69</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="G17" s="10" t="s">
-        <v>69</v>
+      <c r="G17" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -1423,7 +1428,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1438,7 +1443,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1452,8 +1457,8 @@
         <v>13</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>160</v>
+      <c r="G20" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1467,8 +1472,8 @@
         <v>102</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="G21" s="10" t="s">
-        <v>66</v>
+      <c r="G21" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1483,7 +1488,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1497,7 +1502,9 @@
         <v>104</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="H23" s="18"/>
       <c r="I23" s="17"/>
     </row>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="174">
   <si>
     <t>SNMP</t>
   </si>
@@ -94,18 +94,12 @@
     <t>Java EE - todas bancas</t>
   </si>
   <si>
-    <t>MPSBR</t>
-  </si>
-  <si>
     <t>APF</t>
   </si>
   <si>
     <t>Sistemas operacionais</t>
   </si>
   <si>
-    <t>Gestão de Projetos - FCC</t>
-  </si>
-  <si>
     <t>PL-SQL - Todas as bancas</t>
   </si>
   <si>
@@ -542,6 +536,15 @@
   </si>
   <si>
     <t>Gerencia de Projetos - PMBoK</t>
+  </si>
+  <si>
+    <t>15/06/2021 - 16/06/2021</t>
+  </si>
+  <si>
+    <t>Gestão de Projetos - Principais bancas</t>
+  </si>
+  <si>
+    <t>MPS.BR</t>
   </si>
 </sst>
 </file>
@@ -1054,42 +1057,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1132,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1143,44 +1146,44 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1189,17 +1192,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1212,11 +1215,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1225,15 +1228,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1242,62 +1245,62 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="11">
-        <v>44362</v>
+        <v>170</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1306,41 +1309,41 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1349,108 +1352,108 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
@@ -1458,7 +1461,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1469,52 +1472,52 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1565,7 +1568,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1589,32 +1592,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1624,17 +1627,17 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1644,47 +1647,47 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1741,7 +1744,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1751,7 +1754,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1761,7 +1764,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1771,7 +1774,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1781,17 +1784,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1827,17 +1830,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1853,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1867,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1879,7 +1882,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1889,58 +1892,58 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=2&amp;page=5"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=2&amp;page=5"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1976,67 +1979,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2077,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2084,17 +2087,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2104,87 +2107,87 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2255,12 +2258,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2268,77 +2271,77 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2374,52 +2377,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="174">
-  <si>
-    <t>SNMP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
   <si>
     <t>AOC</t>
   </si>
@@ -532,19 +529,22 @@
     <t>Questões de Provas - Questões de Concursos | Qconcursos.com</t>
   </si>
   <si>
+    <t>Gerencia de Projetos - PMBoK</t>
+  </si>
+  <si>
+    <t>15/06/2021 - 16/06/2021</t>
+  </si>
+  <si>
+    <t>Gestão de Projetos - Principais bancas</t>
+  </si>
+  <si>
+    <t>MPS.BR</t>
+  </si>
+  <si>
+    <t>SNMP - principais bancas</t>
+  </si>
+  <si>
     <t>Deficientes - Penal</t>
-  </si>
-  <si>
-    <t>Gerencia de Projetos - PMBoK</t>
-  </si>
-  <si>
-    <t>15/06/2021 - 16/06/2021</t>
-  </si>
-  <si>
-    <t>Gestão de Projetos - Principais bancas</t>
-  </si>
-  <si>
-    <t>MPS.BR</t>
   </si>
 </sst>
 </file>
@@ -1057,42 +1057,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,44 +1146,44 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1192,17 +1192,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1215,11 +1215,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1228,15 +1228,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1245,62 +1245,64 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="G7" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="11">
+        <v>44364</v>
+      </c>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="10" t="s">
-        <v>72</v>
+      <c r="G8" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1309,41 +1311,41 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1352,172 +1354,172 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1526,7 +1528,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1535,7 +1537,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1544,7 +1546,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1553,7 +1555,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1568,7 +1570,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1592,102 +1594,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1715,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,78 +1725,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1805,6 +1811,8 @@
     <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
     <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
     <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=21360"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1825,22 +1833,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1856,7 +1864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1867,72 +1875,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1964,82 +1972,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2072,122 +2080,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2223,47 +2231,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2271,77 +2279,77 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2377,52 +2385,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="175">
   <si>
     <t>AOC</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Java EE - todas bancas</t>
   </si>
   <si>
-    <t>APF</t>
-  </si>
-  <si>
     <t>Sistemas operacionais</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Requisitos - APF</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 31 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>Arquitetura BD CESPE</t>
   </si>
   <si>
-    <t>Modelagem BD</t>
-  </si>
-  <si>
     <t>SQL/Mysql/PostGres  - CESPE</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>SOAP - REST (Cespe)</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Modelagem de dados em Banco de Dados para CESPE / CEBRASPE | Qconcursos.com - Página 12</t>
-  </si>
-  <si>
     <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 11 | Qconcursos.com</t>
   </si>
   <si>
@@ -487,12 +475,6 @@
     <t>SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
-    <t>XP/Scrum - UML - RUP</t>
-  </si>
-  <si>
-    <t>Processos de software - Metricas de software - APF</t>
-  </si>
-  <si>
     <t>BPM/BPMN - CMMI</t>
   </si>
   <si>
@@ -545,6 +527,27 @@
   </si>
   <si>
     <t>Deficientes - Penal</t>
+  </si>
+  <si>
+    <t>XP/Scrum - UML</t>
+  </si>
+  <si>
+    <t>Processos de software</t>
+  </si>
+  <si>
+    <t>Processos de software - Metricas de software/APF</t>
+  </si>
+  <si>
+    <t>Metricas/APF - principais bancas</t>
+  </si>
+  <si>
+    <t>Modelagem/Modelo relacional</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 2 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>18/06/2021 - 19/06/2021</t>
   </si>
 </sst>
 </file>
@@ -1057,42 +1060,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,44 +1149,44 @@
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1192,17 +1195,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1215,11 +1218,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1228,15 +1231,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1245,32 +1248,32 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1279,30 +1282,32 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="11"/>
+      <c r="G8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>174</v>
+      </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1311,41 +1316,41 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="10" t="s">
-        <v>71</v>
+      <c r="G12" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1354,116 +1359,116 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="12" t="s">
-        <v>64</v>
+      <c r="G13" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="10" t="s">
-        <v>77</v>
+      <c r="G14" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="G17" s="12" t="s">
-        <v>155</v>
+      <c r="G17" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="G20" s="10" t="s">
-        <v>156</v>
+      <c r="G20" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1474,52 +1479,49 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="G21" s="12" t="s">
-        <v>157</v>
+      <c r="G21" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="G23" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="H23" s="18"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1528,7 +1530,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1537,7 +1539,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1546,7 +1548,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1555,7 +1557,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1570,7 +1572,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1586,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,32 +1596,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1629,81 +1631,81 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=24&amp;subject_ids%5B%5D=3055"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=31&amp;subject_ids%5B%5D=1655"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A18" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A16" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1725,12 +1727,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1740,7 +1742,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1750,7 +1752,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1760,7 +1762,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1770,7 +1772,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1780,7 +1782,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1790,17 +1792,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1814,7 @@
     <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
     <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1838,17 +1840,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1875,12 +1877,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1890,7 +1892,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1900,47 +1902,47 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1964,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +1979,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1987,67 +1989,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2070,7 +2072,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2087,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2095,17 +2097,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2115,87 +2117,87 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2208,9 +2210,9 @@
     <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
     <hyperlink ref="A23" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
     <hyperlink ref="A26" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
-    <hyperlink ref="A19" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=12&amp;subject_ids%5B%5D=280"/>
-    <hyperlink ref="A17" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A21" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
+    <hyperlink ref="A17" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A21" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2236,7 +2238,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2266,12 +2268,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2279,77 +2281,77 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2385,52 +2387,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
   <si>
     <t>AOC</t>
   </si>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>Modelagem/Modelo relacional</t>
-  </si>
-  <si>
-    <t>Questões de Provas - Questões de Concursos - Página 2 | Qconcursos.com</t>
   </si>
   <si>
     <t>18/06/2021 - 19/06/2021</t>
@@ -1138,15 +1135,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
@@ -1293,7 +1290,7 @@
         <v>170</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1309,7 +1306,9 @@
       <c r="G9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="11">
+        <v>44368</v>
+      </c>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2167,7 +2166,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2212,7 +2211,7 @@
     <hyperlink ref="A26" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
     <hyperlink ref="A17" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
     <hyperlink ref="A21" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A19" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>WAN</t>
   </si>
   <si>
-    <t>Multimidia – QoS</t>
-  </si>
-  <si>
     <t>IPv4 – Ipv6</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 15 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 27 | Qconcursos.com</t>
   </si>
   <si>
@@ -545,6 +539,12 @@
   </si>
   <si>
     <t>18/06/2021 - 19/06/2021</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 3 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Multimidia – QoS - principais bancas</t>
   </si>
 </sst>
 </file>
@@ -1057,42 +1057,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1152,38 +1152,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1192,17 +1192,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1215,11 +1215,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1228,15 +1228,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1245,32 +1245,32 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1279,32 +1279,32 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" s="11">
         <v>44368</v>
@@ -1315,41 +1315,43 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="H10" s="11">
+        <v>44369</v>
+      </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1358,157 +1360,157 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1516,11 +1518,11 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1529,7 +1531,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1538,7 +1540,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1547,7 +1549,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1556,7 +1558,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1571,7 +1573,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1595,102 +1597,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1715,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,12 +1728,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1741,7 +1743,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1751,57 +1753,57 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1811,9 +1813,9 @@
     <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=24&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
     <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
     <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1839,17 +1841,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1876,72 +1878,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1965,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1980,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1988,79 +1990,79 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
-    <hyperlink ref="A18" r:id="rId6" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
-    <hyperlink ref="A14" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2070,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,137 +2083,137 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;page=15&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=65&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A23" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
-    <hyperlink ref="A26" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
-    <hyperlink ref="A17" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A21" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
-    <hyperlink ref="A19" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=65&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A23" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
+    <hyperlink ref="A26" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
+    <hyperlink ref="A17" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A21" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
+    <hyperlink ref="A19" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=3&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2232,47 +2234,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2280,77 +2282,77 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2386,52 +2388,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1338,9 @@
       <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>44370</v>
+      </c>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1717,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2072,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,7 +2090,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2205,15 +2207,15 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=65&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
     <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A23" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
-    <hyperlink ref="A26" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
-    <hyperlink ref="A17" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A21" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
-    <hyperlink ref="A19" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=3&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A23" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
+    <hyperlink ref="A26" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A21" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
+    <hyperlink ref="A19" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=3&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A2" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>AOC</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Requisitos - APF</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Segurança - Ataques</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 10 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 45 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>JavaEE - JPA/Hibernate</t>
   </si>
   <si>
@@ -421,9 +415,6 @@
     <t>Questões de Concurso sobre Orientação a Objetos em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 18</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Padrões de projeto (Design Patterns) em Arquitetura de Software para CESPE / CEBRASPE | Qconcursos.com - Página 11</t>
-  </si>
-  <si>
     <t>GOF (CESPE)</t>
   </si>
   <si>
@@ -545,6 +536,12 @@
   </si>
   <si>
     <t>Multimidia – QoS - principais bancas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia Conceitos - </t>
+  </si>
+  <si>
+    <t>Formas normais - Transações/Segurança - Padrões de Projeto</t>
   </si>
 </sst>
 </file>
@@ -1057,42 +1054,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1136,7 +1133,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,22 +1149,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I1" s="17"/>
     </row>
@@ -1179,11 +1176,11 @@
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1195,14 +1192,14 @@
         <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1215,11 +1212,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1232,11 +1229,11 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1249,14 +1246,14 @@
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1266,11 +1263,11 @@
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1283,14 +1280,14 @@
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1300,11 +1297,11 @@
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="11">
         <v>44368</v>
@@ -1315,11 +1312,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="11">
         <v>44369</v>
@@ -1332,11 +1329,11 @@
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" s="11">
         <v>44370</v>
@@ -1349,24 +1346,26 @@
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="H12" s="11">
+        <v>44371</v>
+      </c>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
@@ -1377,11 +1376,11 @@
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
@@ -1392,11 +1391,11 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -1407,11 +1406,11 @@
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1422,11 +1421,11 @@
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -1452,11 +1451,11 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1471,7 +1470,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1482,11 +1481,11 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1497,11 +1496,11 @@
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1512,7 +1511,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1520,7 +1519,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
@@ -1533,7 +1532,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1542,7 +1541,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1551,7 +1550,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1560,7 +1559,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1575,7 +1574,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1588,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,22 +1598,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1624,7 +1623,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1634,22 +1633,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1659,17 +1658,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1679,22 +1678,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1703,12 +1702,12 @@
     <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
     <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
     <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A14" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A20" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A14" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A2" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1730,12 +1729,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1755,17 +1754,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1775,7 +1774,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -1800,12 +1799,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1852,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1880,12 +1879,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1895,7 +1894,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1910,27 +1909,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1945,7 +1944,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +1981,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1992,12 +1991,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2007,52 +2006,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2074,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2089,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2100,17 +2099,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2120,7 +2119,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2140,7 +2139,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2150,22 +2149,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2175,17 +2174,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2195,27 +2194,27 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=65&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
     <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=45&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A23" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
-    <hyperlink ref="A26" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
-    <hyperlink ref="A17" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A21" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
-    <hyperlink ref="A19" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=3&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
-    <hyperlink ref="A2" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A23" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
+    <hyperlink ref="A26" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
+    <hyperlink ref="A17" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A21" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
+    <hyperlink ref="A19" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=3&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2241,7 +2240,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2284,22 +2283,22 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2309,7 +2308,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2319,17 +2318,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2339,22 +2338,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2389,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -2400,42 +2399,42 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>AOC</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Banco de dados – Fundamentos</t>
   </si>
   <si>
-    <t>LAN-VLAN-ETHERNET</t>
-  </si>
-  <si>
     <t>Modelagem e Transformação – BD</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 12 | Qconcursos.com</t>
   </si>
   <si>
-    <t>REST</t>
-  </si>
-  <si>
     <t>SOA - SOAP/WSDL/UDDI - REST</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>27000 series - ISO IEC 15408</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Transações BD</t>
   </si>
   <si>
@@ -442,9 +433,6 @@
     <t>Conceitos de segurança - CESPE</t>
   </si>
   <si>
-    <t>SOAP - REST (Cespe)</t>
-  </si>
-  <si>
     <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 11 | Qconcursos.com</t>
   </si>
   <si>
@@ -538,10 +526,13 @@
     <t>Multimidia – QoS - principais bancas</t>
   </si>
   <si>
-    <t xml:space="preserve">Engenharia Conceitos - </t>
-  </si>
-  <si>
     <t>Formas normais - Transações/Segurança - Padrões de Projeto</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos - IPv4/IPv6</t>
+  </si>
+  <si>
+    <t>LAN-VLAN-Cabeamento-Wireless</t>
   </si>
 </sst>
 </file>
@@ -1054,42 +1045,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1132,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1149,38 +1140,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1189,17 +1180,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1212,11 +1203,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1225,15 +1216,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1242,32 +1233,32 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1276,32 +1267,32 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="11">
         <v>44368</v>
@@ -1312,11 +1303,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="11">
         <v>44369</v>
@@ -1325,15 +1316,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="11">
         <v>44370</v>
@@ -1342,15 +1333,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H12" s="11">
         <v>44371</v>
@@ -1361,157 +1352,161 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="H13" s="11">
+        <v>44372</v>
+      </c>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="H14" s="11">
+        <v>44373</v>
+      </c>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1519,11 +1514,11 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1532,7 +1527,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1541,7 +1536,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1550,7 +1545,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1559,7 +1554,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1574,7 +1569,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1598,102 +1593,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1714,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,12 +1724,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1744,7 +1739,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1754,17 +1749,17 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1774,49 +1769,49 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;publication_year%5B%5D=2010&amp;publication_year%5B%5D=2011&amp;publication_year%5B%5D=2012&amp;publication_year%5B%5D=2013&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
     <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=24&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1842,17 +1837,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1879,12 +1874,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1894,57 +1889,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1976,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1991,67 +1986,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2089,117 +2084,117 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2220,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,47 +2230,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2283,77 +2278,72 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2367,8 +2357,8 @@
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
     <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
     <hyperlink ref="A24" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=2&amp;page=8&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=18037"/>
-    <hyperlink ref="A26" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
+    <hyperlink ref="A26" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2389,52 +2379,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
   <si>
     <t>AOC</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Cobit - Container/Docker</t>
   </si>
   <si>
-    <t>Scrum – XP (CESPE)</t>
-  </si>
-  <si>
     <t>TDD - DDD</t>
   </si>
   <si>
@@ -376,9 +373,6 @@
     <t>Questões de Concurso sobre Lei 12.965 de 2014 - Marco Civil da Internet em Legislação Federal | Qconcursos.com - Página 5</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre UML em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 9</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Modelagem de Processos de Negócio (BPM) para CESPE / CEBRASPE | Qconcursos.com - Página 5</t>
   </si>
   <si>
@@ -533,6 +527,9 @@
   </si>
   <si>
     <t>LAN-VLAN-Cabeamento-Wireless</t>
+  </si>
+  <si>
+    <t>XP</t>
   </si>
 </sst>
 </file>
@@ -1045,42 +1042,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1123,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1200,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1220,11 +1217,11 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1241,10 +1238,10 @@
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1275,10 +1272,10 @@
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1341,7 +1338,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H12" s="11">
         <v>44371</v>
@@ -1373,7 +1370,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H14" s="11">
         <v>44373</v>
@@ -1390,9 +1387,11 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="H15" s="11">
+        <v>44375</v>
+      </c>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1405,7 +1404,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1420,7 +1419,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -1450,7 +1449,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1465,7 +1464,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1495,7 +1494,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1527,7 +1526,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1536,7 +1535,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1545,7 +1544,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1554,7 +1553,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1569,7 +1568,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1582,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1592,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1603,12 +1602,12 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1628,22 +1627,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1653,17 +1652,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1673,36 +1672,36 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=9&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A20" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A2" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A18" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A20" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1724,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1754,12 +1753,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1774,12 +1773,12 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1874,7 +1873,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1904,27 +1903,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1976,7 +1975,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1986,7 +1985,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2001,52 +2000,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2103,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2134,7 +2133,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2149,7 +2148,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2159,7 +2158,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2169,7 +2168,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2179,7 +2178,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2189,7 +2188,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2308,12 +2307,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2328,17 +2327,17 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2389,7 +2388,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2399,27 +2398,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,9 +1404,11 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="11"/>
+        <v>43</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44376</v>
+      </c>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1434,7 +1436,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1581,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1821,7 +1823,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1838,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1851,8 +1853,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=34&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=49&amp;subject_ids%5B%5D=253&amp;subject_ids%5B%5D=254&amp;subject_ids%5B%5D=255&amp;subject_ids%5B%5D=256&amp;subject_ids%5B%5D=259&amp;subject_ids%5B%5D=1207&amp;subject_ids%5B%5D=1208&amp;subject_ids%5B%5D=1334&amp;subject_ids%5B%5D=1360&amp;subject_ids%5B%5D=1696&amp;subject_ids%5B%5D=2493&amp;subject_ids%5B%5D=2494&amp;subject_ids%5B%5D=2710&amp;subject_ids%5B%5D=2792&amp;subject_ids%5B%5D=2793&amp;subject_ids%5B%5D=3003&amp;subject_ids%5B%5D=3903&amp;subject_ids%5B%5D=5903&amp;subject_ids%5B%5D=6248&amp;subject_ids%5B%5D=16632"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=49&amp;subject_ids%5B%5D=253&amp;subject_ids%5B%5D=254&amp;subject_ids%5B%5D=255&amp;subject_ids%5B%5D=256&amp;subject_ids%5B%5D=259&amp;subject_ids%5B%5D=1207&amp;subject_ids%5B%5D=1208&amp;subject_ids%5B%5D=1334&amp;subject_ids%5B%5D=1360&amp;subject_ids%5B%5D=1696&amp;subject_ids%5B%5D=2493&amp;subject_ids%5B%5D=2494&amp;subject_ids%5B%5D=2710&amp;subject_ids%5B%5D=2792&amp;subject_ids%5B%5D=2793&amp;subject_ids%5B%5D=3003&amp;subject_ids%5B%5D=3903&amp;subject_ids%5B%5D=5903&amp;subject_ids%5B%5D=6248&amp;subject_ids%5B%5D=16632"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
   <si>
     <t>AOC</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 15 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 27 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>SNMP - VPN - LDAP/AD</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 13 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 49 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>DotNET - C#</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>Teste de software (Cespe)</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Teste de Software em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 11</t>
-  </si>
-  <si>
     <t>Orientação a objetos</t>
   </si>
   <si>
@@ -493,9 +484,6 @@
     <t>SNMP - principais bancas</t>
   </si>
   <si>
-    <t>Deficientes - Penal</t>
-  </si>
-  <si>
     <t>XP/Scrum - UML</t>
   </si>
   <si>
@@ -523,13 +511,22 @@
     <t>Formas normais - Transações/Segurança - Padrões de Projeto</t>
   </si>
   <si>
-    <t>Engenharia Conceitos - IPv4/IPv6</t>
-  </si>
-  <si>
     <t>LAN-VLAN-Cabeamento-Wireless</t>
   </si>
   <si>
     <t>XP</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Deficientes - IPv4/IPv6</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos - Teste de Software</t>
   </si>
 </sst>
 </file>
@@ -1042,42 +1039,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1120,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,13 +1143,13 @@
         <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I1" s="17"/>
     </row>
@@ -1200,11 +1197,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1217,11 +1214,11 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1234,14 +1231,14 @@
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1251,11 +1248,11 @@
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1268,14 +1265,14 @@
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1285,11 +1282,11 @@
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="11">
         <v>44368</v>
@@ -1300,11 +1297,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10" s="11">
         <v>44369</v>
@@ -1317,11 +1314,11 @@
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="11">
         <v>44370</v>
@@ -1334,11 +1331,11 @@
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H12" s="11">
         <v>44371</v>
@@ -1349,11 +1346,11 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="11">
         <v>44372</v>
@@ -1370,7 +1367,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H14" s="11">
         <v>44373</v>
@@ -1383,11 +1380,11 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H15" s="11">
         <v>44375</v>
@@ -1421,9 +1418,11 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="H17" s="11">
+        <v>44377</v>
+      </c>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1436,7 +1435,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1447,11 +1446,11 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1466,7 +1465,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1477,7 +1476,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
@@ -1496,7 +1495,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1507,7 +1506,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1528,7 +1527,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1537,7 +1536,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1546,7 +1545,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1555,7 +1554,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1570,7 +1569,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1583,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,22 +1593,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1619,7 +1618,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1634,17 +1633,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1654,17 +1653,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1674,36 +1673,36 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=27&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A18" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A20" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A16" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
+    <hyperlink ref="A20" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1725,12 +1724,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1755,12 +1754,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1770,17 +1769,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1795,12 +1794,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1823,7 +1822,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,13 +1847,13 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=49&amp;subject_ids%5B%5D=253&amp;subject_ids%5B%5D=254&amp;subject_ids%5B%5D=255&amp;subject_ids%5B%5D=256&amp;subject_ids%5B%5D=259&amp;subject_ids%5B%5D=1207&amp;subject_ids%5B%5D=1208&amp;subject_ids%5B%5D=1334&amp;subject_ids%5B%5D=1360&amp;subject_ids%5B%5D=1696&amp;subject_ids%5B%5D=2493&amp;subject_ids%5B%5D=2494&amp;subject_ids%5B%5D=2710&amp;subject_ids%5B%5D=2792&amp;subject_ids%5B%5D=2793&amp;subject_ids%5B%5D=3003&amp;subject_ids%5B%5D=3903&amp;subject_ids%5B%5D=5903&amp;subject_ids%5B%5D=6248&amp;subject_ids%5B%5D=16632"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1875,12 +1874,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1890,7 +1889,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1905,27 +1904,27 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1940,7 +1939,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1977,7 +1976,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1987,12 +1986,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2002,52 +2001,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2084,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2095,17 +2094,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2115,7 +2114,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2135,7 +2134,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2145,22 +2144,22 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2170,7 +2169,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2180,7 +2179,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2190,12 +2189,12 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2235,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2284,12 +2283,12 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2299,7 +2298,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2309,17 +2308,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2329,22 +2328,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2390,42 +2389,42 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>WAN</t>
   </si>
   <si>
-    <t>IPv4 – Ipv6</t>
-  </si>
-  <si>
     <t>Cobit</t>
   </si>
   <si>
@@ -433,9 +430,6 @@
     <t>SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
-    <t>BPM/BPMN - CMMI</t>
-  </si>
-  <si>
     <t>Docker - Kubernates</t>
   </si>
   <si>
@@ -523,10 +517,16 @@
     <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Deficientes - IPv4/IPv6</t>
-  </si>
-  <si>
     <t>Engenharia Conceitos - Teste de Software</t>
+  </si>
+  <si>
+    <t>CMMI - Deficientes</t>
+  </si>
+  <si>
+    <t>BPM/BPMN  - IPv4/IPv6</t>
+  </si>
+  <si>
+    <t>IPv4 – Ipv6 - Arquitetura TCP/IP</t>
   </si>
 </sst>
 </file>
@@ -1039,42 +1039,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1134,38 +1134,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1174,17 +1174,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1197,11 +1197,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1210,15 +1210,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1227,32 +1227,32 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1261,32 +1261,32 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="11">
         <v>44368</v>
@@ -1297,11 +1297,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="11">
         <v>44369</v>
@@ -1310,15 +1310,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="11">
         <v>44370</v>
@@ -1327,15 +1327,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H12" s="11">
         <v>44371</v>
@@ -1346,11 +1346,11 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="11">
         <v>44372</v>
@@ -1359,15 +1359,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="11">
         <v>44373</v>
@@ -1376,15 +1376,15 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H15" s="11">
         <v>44375</v>
@@ -1393,15 +1393,15 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="11">
         <v>44376</v>
@@ -1410,15 +1410,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H17" s="11">
         <v>44377</v>
@@ -1427,86 +1427,88 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H18" s="11"/>
+      <c r="H18" s="11">
+        <v>44378</v>
+      </c>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1514,11 +1516,11 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1527,7 +1529,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1536,7 +1538,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1545,7 +1547,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1554,7 +1556,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1569,7 +1571,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1593,102 +1595,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1713,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,12 +1726,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1739,7 +1741,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1749,69 +1751,69 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=16&amp;publication_year%5B%5D=2010&amp;publication_year%5B%5D=2011&amp;publication_year%5B%5D=2012&amp;publication_year%5B%5D=2013&amp;publication_year%5B%5D=2014&amp;publication_year%5B%5D=2015&amp;publication_year%5B%5D=2016&amp;publication_year%5B%5D=2017&amp;publication_year%5B%5D=2018&amp;publication_year%5B%5D=2019&amp;publication_year%5B%5D=2020&amp;publication_year%5B%5D=2021&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1837,17 +1839,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1874,72 +1876,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1978,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1986,67 +1988,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2079,122 +2081,122 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2230,47 +2232,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2278,72 +2280,72 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2379,52 +2381,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
   <si>
     <t>AOC</t>
   </si>
@@ -97,9 +97,6 @@
     <t>ITILv3 - ITILv4</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 9 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Formas Normais</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>LDAP - Active Directory</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 16 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>IPv4 - IPv6 - WAN</t>
   </si>
   <si>
@@ -301,24 +295,15 @@
     <t>TDD - DDD</t>
   </si>
   <si>
-    <t>Engenharia de Requisitos (Cespe)</t>
-  </si>
-  <si>
     <t>Engenharia de Requisitos - Gestão de config./Git</t>
   </si>
   <si>
     <t>Gerencia de Riscos - Criptografia</t>
   </si>
   <si>
-    <t>Segurança – ISO 27000 series (Cespe)</t>
-  </si>
-  <si>
     <t>Análise de Vulnerabilidade e Gestão de Riscos  (Cespe)</t>
   </si>
   <si>
-    <t>Segurança – Criptografia Certificados Digitais (Cespe)</t>
-  </si>
-  <si>
     <t>LGPD</t>
   </si>
   <si>
@@ -364,12 +349,6 @@
     <t>Questões de Concurso sobre Lei 12.965 de 2014 - Marco Civil da Internet em Legislação Federal | Qconcursos.com - Página 5</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Modelagem de Processos de Negócio (BPM) para CESPE / CEBRASPE | Qconcursos.com - Página 5</t>
-  </si>
-  <si>
-    <t>Modelagem de Processos de Negocio - BPM - CESPE</t>
-  </si>
-  <si>
     <t>BPMN - Geral</t>
   </si>
   <si>
@@ -394,9 +373,6 @@
     <t>Gestão de configuração/Git - principais bancas</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 14 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>https://kubernetes.io/pt-br/docs/concepts/overview/components/</t>
   </si>
   <si>
@@ -418,9 +394,6 @@
     <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 11 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 21 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Licitações - Deficientes</t>
   </si>
   <si>
@@ -430,9 +403,6 @@
     <t>SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
-    <t>Docker - Kubernates</t>
-  </si>
-  <si>
     <t>Cobit 2019 - ITIL v4</t>
   </si>
   <si>
@@ -520,13 +490,22 @@
     <t>Engenharia Conceitos - Teste de Software</t>
   </si>
   <si>
-    <t>CMMI - Deficientes</t>
-  </si>
-  <si>
     <t>BPM/BPMN  - IPv4/IPv6</t>
   </si>
   <si>
     <t>IPv4 – Ipv6 - Arquitetura TCP/IP</t>
+  </si>
+  <si>
+    <t>Modelagem de Processos de Negocio - BPMN</t>
+  </si>
+  <si>
+    <t>Segurança – ISO 27000 series</t>
+  </si>
+  <si>
+    <t>Segurança – Criptografia Certificados Digitais</t>
+  </si>
+  <si>
+    <t>Engenharia de Requisitos</t>
   </si>
 </sst>
 </file>
@@ -624,7 +603,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -671,12 +650,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -724,6 +712,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1039,42 +1028,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1117,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,38 +1123,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="11">
         <v>44355</v>
@@ -1174,17 +1163,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H3" s="11">
         <v>44356</v>
@@ -1197,11 +1186,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H4" s="11">
         <v>44357</v>
@@ -1210,15 +1199,15 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H5" s="11">
         <v>44361</v>
@@ -1227,32 +1216,32 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="11">
         <v>44364</v>
@@ -1261,32 +1250,32 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="11">
         <v>44368</v>
@@ -1297,11 +1286,11 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11">
         <v>44369</v>
@@ -1310,15 +1299,15 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="11">
         <v>44370</v>
@@ -1327,15 +1316,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H12" s="11">
         <v>44371</v>
@@ -1346,11 +1335,11 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="11">
         <v>44372</v>
@@ -1359,15 +1348,15 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H14" s="11">
         <v>44373</v>
@@ -1376,15 +1365,15 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H15" s="11">
         <v>44375</v>
@@ -1393,15 +1382,15 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="11">
         <v>44376</v>
@@ -1410,15 +1399,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H17" s="11">
         <v>44377</v>
@@ -1427,15 +1416,15 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H18" s="11">
         <v>44378</v>
@@ -1444,32 +1433,36 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H19" s="11">
+        <v>44379</v>
+      </c>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="11"/>
+      <c r="G20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="11">
+        <v>44380</v>
+      </c>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1478,37 +1471,33 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="G21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="11"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="G22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="11"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1516,11 +1505,11 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1529,7 +1518,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1538,7 +1527,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1547,7 +1536,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1556,7 +1545,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1571,7 +1560,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1574,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1595,32 +1584,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1630,81 +1619,81 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=14&amp;subject_ids%5B%5D=1679&amp;subject_ids%5B%5D=4201"/>
-    <hyperlink ref="A20" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A14" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A6" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1715,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1726,12 +1715,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1741,7 +1730,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1751,37 +1740,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1791,17 +1780,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1828,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1849,7 +1838,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1866,7 +1855,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1876,12 +1865,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1891,7 +1880,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1901,37 +1890,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1941,7 +1930,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1950,9 +1939,9 @@
     <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
     <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
     <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=2&amp;page=5"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1978,7 +1967,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1988,67 +1977,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2075,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2096,17 +2085,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2116,7 +2105,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2131,72 +2120,72 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2226,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2267,7 +2256,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2285,67 +2274,67 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2360,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,52 +2370,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2435,8 +2424,8 @@
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
     <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
     <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=16&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
   <si>
     <t>AOC</t>
   </si>
@@ -403,9 +403,6 @@
     <t>SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
-    <t>Cobit 2019 - ITIL v4</t>
-  </si>
-  <si>
     <t>Portugues - FCC</t>
   </si>
   <si>
@@ -421,12 +418,6 @@
     <t>Matematica Vunesp</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com</t>
-  </si>
-  <si>
-    <t>Licitações - Constitucional</t>
-  </si>
-  <si>
     <t>Constitucional - Principais bancas</t>
   </si>
   <si>
@@ -436,9 +427,6 @@
     <t>Gerencia de Projetos - PMBoK</t>
   </si>
   <si>
-    <t>15/06/2021 - 16/06/2021</t>
-  </si>
-  <si>
     <t>Gestão de Projetos - Principais bancas</t>
   </si>
   <si>
@@ -463,9 +451,6 @@
     <t>Modelagem/Modelo relacional</t>
   </si>
   <si>
-    <t>18/06/2021 - 19/06/2021</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 3 | Qconcursos.com</t>
   </si>
   <si>
@@ -506,6 +491,24 @@
   </si>
   <si>
     <t>Engenharia de Requisitos</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 2</t>
+  </si>
+  <si>
+    <t>Matematica</t>
+  </si>
+  <si>
+    <t>Portugues - Constitucional</t>
+  </si>
+  <si>
+    <t>Raciocinio Logico</t>
+  </si>
+  <si>
+    <t>Raciocinio logico</t>
+  </si>
+  <si>
+    <t>Cobit 2019 - ITIL v4 - Licitações - 8112</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -644,15 +647,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -712,7 +706,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1018,7 +1014,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,49 +1024,53 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1093,12 +1093,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=63&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=9"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1106,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1155,10 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="H2" s="11">
-        <v>44355</v>
+        <v>44383</v>
       </c>
       <c r="I2" s="18"/>
     </row>
@@ -1173,10 +1174,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="H3" s="11">
-        <v>44356</v>
+        <v>44384</v>
       </c>
       <c r="I3" s="18"/>
     </row>
@@ -1190,10 +1191,10 @@
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H4" s="11">
-        <v>44357</v>
+        <v>44385</v>
       </c>
       <c r="I4" s="18"/>
     </row>
@@ -1206,11 +1207,11 @@
         <v>124</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="G5" s="10" t="s">
-        <v>126</v>
+      <c r="G5" s="21">
+        <v>8112</v>
       </c>
       <c r="H5" s="11">
-        <v>44361</v>
+        <v>44387</v>
       </c>
       <c r="I5" s="18"/>
     </row>
@@ -1224,11 +1225,9 @@
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>137</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1241,11 +1240,9 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="11">
-        <v>44364</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1257,12 +1254,10 @@
         <v>66</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>146</v>
-      </c>
+      <c r="G8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1274,12 +1269,10 @@
         <v>67</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="G9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="11">
-        <v>44368</v>
-      </c>
+      <c r="G9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1290,11 +1283,9 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="11">
-        <v>44369</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1306,12 +1297,10 @@
         <v>73</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="G11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="11">
-        <v>44370</v>
-      </c>
+      <c r="G11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,11 +1313,9 @@
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="11">
-        <v>44371</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H12" s="11"/>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1338,12 +1325,10 @@
         <v>64</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="11">
-        <v>44372</v>
-      </c>
+      <c r="G13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,12 +1340,10 @@
         <v>57</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="11">
-        <v>44373</v>
-      </c>
+      <c r="G14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,11 +1356,9 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="11">
-        <v>44375</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1390,11 +1371,9 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="11">
-        <v>44376</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1406,12 +1385,10 @@
         <v>59</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="G17" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H17" s="11">
-        <v>44377</v>
-      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1424,11 +1401,9 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="11">
-        <v>44378</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,11 +1416,9 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="11">
-        <v>44379</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1458,11 +1431,9 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="11">
-        <v>44380</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1474,8 +1445,10 @@
         <v>86</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1487,8 +1460,10 @@
         <v>60</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1594,7 +1569,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1609,7 +1584,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1624,17 +1599,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1644,12 +1619,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -1715,7 +1690,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1745,32 +1720,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1838,7 +1813,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1895,7 +1870,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1915,7 +1890,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1967,7 +1942,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1977,7 +1952,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2095,7 +2070,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2125,7 +2100,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2150,7 +2125,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2380,22 +2355,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
   <si>
     <t>AOC</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Backup - RAID/DAS/NAS/SAN - QoS</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 12 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>SOA - SOAP/WSDL/UDDI - REST</t>
   </si>
   <si>
@@ -508,7 +505,7 @@
     <t>Raciocinio logico</t>
   </si>
   <si>
-    <t>Cobit 2019 - ITIL v4 - Licitações - 8112</t>
+    <t>Cobit 2019 - ITIL v4 - Licitações</t>
   </si>
 </sst>
 </file>
@@ -1024,17 +1021,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1044,32 +1041,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1107,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,13 +1130,13 @@
         <v>53</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I1" s="17"/>
     </row>
@@ -1155,7 +1152,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1174,7 +1171,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1187,11 +1184,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1204,7 +1201,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="21">
@@ -1224,10 +1221,12 @@
         <v>70</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="G6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="11">
+        <v>44389</v>
+      </c>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1240,7 +1239,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="18"/>
@@ -1270,7 +1269,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1279,7 +1278,7 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
@@ -1294,7 +1293,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
@@ -1326,7 +1325,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
@@ -1352,11 +1351,11 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -1371,7 +1370,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1401,7 +1400,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1412,11 +1411,11 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1442,11 +1441,11 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1461,7 +1460,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1472,7 +1471,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1493,7 +1492,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1502,7 +1501,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1511,7 +1510,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1520,7 +1519,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1535,7 +1534,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1558,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1569,7 +1568,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1584,7 +1583,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1599,17 +1598,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1619,17 +1618,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1639,7 +1638,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1649,12 +1648,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1720,32 +1719,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1813,7 +1812,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1829,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1840,12 +1839,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1855,7 +1854,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1870,7 +1869,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1880,17 +1879,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1905,7 +1904,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1915,8 +1914,8 @@
     <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
     <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
     <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1942,7 +1941,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1952,7 +1951,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1967,52 +1966,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2060,17 +2059,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2080,7 +2079,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2100,7 +2099,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2115,17 +2114,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2135,7 +2134,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2145,7 +2144,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -2155,7 +2154,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -2201,7 +2200,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2254,7 +2253,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2264,7 +2263,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2274,17 +2273,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2294,22 +2293,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2355,42 +2354,42 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
   <si>
     <t>AOC</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Banco de dados – Fundamentos</t>
   </si>
   <si>
-    <t>Modelagem e Transformação – BD</t>
-  </si>
-  <si>
     <t>Wireless</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>BI - Big Data - ETL - Data Mining</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 65 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 75 | Qconcursos.com</t>
   </si>
   <si>
@@ -313,15 +307,6 @@
     <t>27000 series - ISO IEC 15408</t>
   </si>
   <si>
-    <t>Transações BD</t>
-  </si>
-  <si>
-    <t>Arquitetura BD CESPE</t>
-  </si>
-  <si>
-    <t>SQL/Mysql/PostGres  - CESPE</t>
-  </si>
-  <si>
     <t>LAI</t>
   </si>
   <si>
@@ -364,18 +349,12 @@
     <t>Questões de Concurso sobre Orientação a Objetos em Engenharia de Software para CESPE / CEBRASPE | Qconcursos.com - Página 18</t>
   </si>
   <si>
-    <t>GOF (CESPE)</t>
-  </si>
-  <si>
     <t>Gestão de configuração/Git - principais bancas</t>
   </si>
   <si>
     <t>https://kubernetes.io/pt-br/docs/concepts/overview/components/</t>
   </si>
   <si>
-    <t>BI - BigData - OLAP - ETL - CESPE</t>
-  </si>
-  <si>
     <t>Scrum, XP, TDD, Modelagem ágil e Kanban. - CESPE</t>
   </si>
   <si>
@@ -454,9 +433,6 @@
     <t>Multimidia – QoS - principais bancas</t>
   </si>
   <si>
-    <t>Formas normais - Transações/Segurança - Padrões de Projeto</t>
-  </si>
-  <si>
     <t>LAN-VLAN-Cabeamento-Wireless</t>
   </si>
   <si>
@@ -506,6 +482,15 @@
   </si>
   <si>
     <t>Cobit 2019 - ITIL v4 - Licitações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formas normais - Transações/Segurança - </t>
+  </si>
+  <si>
+    <t>Modelagem e Tranformação - BI - Padrões de Projeto</t>
+  </si>
+  <si>
+    <t>Padrões de Projetos</t>
   </si>
 </sst>
 </file>
@@ -1021,52 +1006,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1105,7 +1090,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,38 +1106,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="13">
         <v>44223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1161,17 +1146,17 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1184,11 +1169,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1197,11 +1182,11 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="21">
@@ -1214,15 +1199,15 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9"/>
       <c r="D6" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H6" s="11">
         <v>44389</v>
@@ -1231,45 +1216,47 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="9"/>
       <c r="D7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="H7" s="11">
+        <v>44390</v>
+      </c>
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="9"/>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="9"/>
       <c r="D9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1278,41 +1265,41 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9"/>
       <c r="D11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1321,157 +1308,157 @@
       <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="D13" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="9"/>
       <c r="D14" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="9"/>
       <c r="D16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9"/>
       <c r="D17" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="9"/>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="11"/>
       <c r="H23" s="18"/>
@@ -1479,11 +1466,11 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="9"/>
       <c r="D24" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="16"/>
@@ -1492,7 +1479,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="16"/>
@@ -1501,7 +1488,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1510,7 +1497,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1519,7 +1506,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1534,7 +1521,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1547,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,102 +1545,102 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1661,13 +1648,13 @@
     <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
     <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
     <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
-    <hyperlink ref="A6" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A4" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
+    <hyperlink ref="A16" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A2" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1689,12 +1676,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1704,7 +1691,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1714,57 +1701,57 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1802,17 +1789,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1828,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1839,12 +1826,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1854,57 +1841,57 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +1928,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1951,67 +1938,67 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2021,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,132 +2036,95 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>97</v>
+      <c r="A16" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="A26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=65&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=1151&amp;subject_ids%5B%5D=496"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A23" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4536&amp;subject_ids%5B%5D=4879&amp;subject_ids%5B%5D=4970"/>
-    <hyperlink ref="A26" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=5&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=5262"/>
-    <hyperlink ref="A17" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A21" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=2&amp;page=6&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=5554"/>
-    <hyperlink ref="A19" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=3&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2195,47 +2145,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -2243,72 +2193,72 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2344,52 +2294,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B9E65-BF27-4964-93ED-A63D86E70B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6225" activeTab="1"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
   <si>
     <t>AOC</t>
   </si>
@@ -334,9 +340,6 @@
     <t>BPMN - Geral</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 20 | Qconcursos.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JEE (JPA, EJB, JSF, JMS e JTA), JVM - JPA - Hibernate</t>
   </si>
   <si>
@@ -491,12 +494,18 @@
   </si>
   <si>
     <t>Padrões de Projetos</t>
+  </si>
+  <si>
+    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844</t>
+  </si>
+  <si>
+    <t>teste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,6 +711,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -709,7 +721,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -747,9 +759,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,9 +794,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,9 +846,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -992,7 +1038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1006,17 +1052,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1026,32 +1072,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1074,11 +1120,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1086,10 +1132,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1137,7 +1183,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1156,7 +1202,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1169,11 +1215,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1186,7 +1232,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="21">
@@ -1207,7 +1253,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="11">
         <v>44389</v>
@@ -1224,7 +1270,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1241,9 +1287,11 @@
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="H8" s="11">
+        <v>44391</v>
+      </c>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1256,7 +1304,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="17"/>
@@ -1269,7 +1317,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
@@ -1312,7 +1360,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
@@ -1342,7 +1390,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -1357,7 +1405,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1387,7 +1435,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1402,7 +1450,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1447,7 +1495,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1521,7 +1569,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1579,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1545,17 +1593,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1570,7 +1618,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1585,17 +1633,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1605,17 +1653,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1625,7 +1673,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1635,26 +1683,26 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A2" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A18" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A16" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A2" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1662,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1676,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1706,32 +1754,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1756,21 +1804,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1799,20 +1847,20 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1826,12 +1874,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1856,7 +1904,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1871,12 +1919,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1896,20 +1944,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1928,7 +1976,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1938,7 +1986,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2003,21 +2051,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2082,7 +2130,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2097,7 +2145,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2119,23 +2167,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2237,9 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2223,12 +2273,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2243,12 +2293,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -2263,24 +2313,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=20&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844&amp;subject_ids%5B%5D=20848&amp;subject_ids%5B%5D=20853&amp;subject_ids%5B%5D=20854"/>
-    <hyperlink ref="A24" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
-    <hyperlink ref="A26" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{32D76FF9-8E9B-417F-82F9-4678A447F49F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2304,22 +2354,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2329,12 +2379,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2344,12 +2394,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B9E65-BF27-4964-93ED-A63D86E70B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -415,15 +409,9 @@
     <t>SNMP - principais bancas</t>
   </si>
   <si>
-    <t>XP/Scrum - UML</t>
-  </si>
-  <si>
     <t>Processos de software</t>
   </si>
   <si>
-    <t>Processos de software - Metricas de software/APF</t>
-  </si>
-  <si>
     <t>Metricas/APF - principais bancas</t>
   </si>
   <si>
@@ -496,16 +484,22 @@
     <t>Padrões de Projetos</t>
   </si>
   <si>
-    <t>https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844</t>
-  </si>
-  <si>
     <t>teste</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 9 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>XP/Scrum - Metricas de software/APF</t>
+  </si>
+  <si>
+    <t>Processos de software - UML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,7 +715,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,9 +753,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,26 +788,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -846,26 +823,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1038,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1077,7 +1037,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1092,7 +1052,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1120,11 +1080,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1132,11 +1092,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1143,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1202,7 +1162,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1219,7 +1179,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1270,7 +1230,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1304,9 +1264,11 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="H9" s="11">
+        <v>44392</v>
+      </c>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1317,7 +1279,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="17"/>
@@ -1360,7 +1322,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
@@ -1405,7 +1367,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1435,7 +1397,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1450,7 +1412,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1579,11 +1541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,17 +1555,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1618,7 +1580,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1628,32 +1590,32 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -1693,16 +1655,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A18" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A16" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A2" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1710,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1754,7 +1716,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1764,7 +1726,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1774,7 +1736,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1804,21 +1766,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1847,20 +1809,20 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1879,7 +1841,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1904,7 +1866,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1944,20 +1906,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2051,21 +2013,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2130,7 +2092,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2145,7 +2107,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2167,23 +2129,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2200,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2278,7 +2240,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2313,24 +2275,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{32D76FF9-8E9B-417F-82F9-4678A447F49F}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2354,7 +2316,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2364,7 +2326,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2394,12 +2356,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" activeTab="9"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
   <si>
     <t>AOC</t>
   </si>
@@ -250,9 +250,6 @@
     <t>BI - Big Data - ETL - Data Mining</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 75 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 10 | Qconcursos.com</t>
   </si>
   <si>
@@ -376,12 +373,6 @@
     <t>SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
-    <t>Portugues - FCC</t>
-  </si>
-  <si>
-    <t>Questões de Concurso sobre Português para FCC nível Superior | Qconcursos.com - Página 2</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 4 | Qconcursos.com</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
     <t>Engenharia de Requisitos</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 2</t>
-  </si>
-  <si>
     <t>Matematica</t>
   </si>
   <si>
@@ -494,6 +482,24 @@
   </si>
   <si>
     <t>Processos de software - UML</t>
+  </si>
+  <si>
+    <t>Portugues - Deficientes</t>
+  </si>
+  <si>
+    <t>Deficientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD Fundamentos - </t>
+  </si>
+  <si>
+    <t>SQL comandos - Portugues</t>
+  </si>
+  <si>
+    <t>Portugues</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 3</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,17 +1018,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1032,36 +1038,43 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1080,14 +1093,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A8" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=2&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1095,8 +1109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,13 +1135,13 @@
         <v>52</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I1" s="17"/>
     </row>
@@ -1143,7 +1157,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1162,7 +1176,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1175,11 +1189,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1192,7 +1206,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="21">
@@ -1213,7 +1227,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H6" s="11">
         <v>44389</v>
@@ -1230,7 +1244,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1247,7 +1261,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="11">
         <v>44391</v>
@@ -1264,7 +1278,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H9" s="11">
         <v>44392</v>
@@ -1279,9 +1293,11 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="H10" s="11">
+        <v>44393</v>
+      </c>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1294,9 +1310,11 @@
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="H11" s="11">
+        <v>44394</v>
+      </c>
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,8 +1326,8 @@
         <v>62</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="12" t="s">
-        <v>63</v>
+      <c r="G12" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="17"/>
@@ -1321,8 +1339,8 @@
         <v>63</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="G13" s="12" t="s">
-        <v>150</v>
+      <c r="G13" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="17"/>
@@ -1336,8 +1354,8 @@
         <v>56</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="10" t="s">
-        <v>66</v>
+      <c r="G14" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
@@ -1348,11 +1366,11 @@
       </c>
       <c r="B15" s="9"/>
       <c r="D15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -1366,8 +1384,8 @@
         <v>57</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="G16" s="12" t="s">
-        <v>155</v>
+      <c r="G16" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1382,7 +1400,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -1396,8 +1414,8 @@
         <v>40</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="G18" s="10" t="s">
-        <v>137</v>
+      <c r="G18" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1408,11 +1426,11 @@
       </c>
       <c r="B19" s="9"/>
       <c r="D19" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="G19" s="10" t="s">
-        <v>138</v>
+      <c r="G19" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1427,7 +1445,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1438,11 +1456,11 @@
       </c>
       <c r="B21" s="9"/>
       <c r="D21" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1457,7 +1475,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1468,10 +1486,13 @@
       </c>
       <c r="B23" s="9"/>
       <c r="D23" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="11"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,22 +1504,24 @@
         <v>46</v>
       </c>
       <c r="E24" s="11"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="11"/>
       <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="11"/>
       <c r="G26" s="16"/>
@@ -1507,7 +1530,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="15"/>
       <c r="G27" s="19"/>
@@ -1516,7 +1539,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="11"/>
       <c r="G28" s="16"/>
@@ -1531,7 +1554,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1555,17 +1578,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1580,7 +1603,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1590,42 +1613,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1635,7 +1658,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1645,12 +1668,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1709,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1716,32 +1739,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1809,7 +1832,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1836,12 +1859,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1851,7 +1874,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1866,7 +1889,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1876,17 +1899,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1901,7 +1924,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1961,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1948,7 +1971,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1963,52 +1986,52 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2031,7 +2054,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2095,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2092,7 +2115,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2107,7 +2130,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2129,12 +2152,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=75&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2160,7 +2183,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2200,7 +2223,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2235,17 +2258,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -2255,22 +2278,22 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2316,42 +2339,42 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E26A90-72ED-4DCD-AC77-9ED5EA34CDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
   <si>
     <t>AOC</t>
   </si>
@@ -505,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -721,7 +727,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,9 +765,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,9 +800,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -829,9 +852,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1004,10 +1044,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1093,12 +1133,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1106,11 +1146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,10 +1366,12 @@
         <v>62</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="G12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="11">
+        <v>44396</v>
+      </c>
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1340,9 +1382,11 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="11"/>
+        <v>145</v>
+      </c>
+      <c r="H13" s="11">
+        <v>44397</v>
+      </c>
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1354,8 +1398,8 @@
         <v>56</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="12" t="s">
-        <v>155</v>
+      <c r="G14" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="17"/>
@@ -1370,7 +1414,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="17"/>
@@ -1384,8 +1428,8 @@
         <v>57</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="G16" s="10" t="s">
-        <v>66</v>
+      <c r="G16" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1399,8 +1443,8 @@
         <v>58</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="G17" s="12" t="s">
-        <v>115</v>
+      <c r="G17" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -1415,7 +1459,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1430,7 +1474,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1444,8 +1488,8 @@
         <v>8</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="G20" s="10" t="s">
-        <v>134</v>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1460,7 +1504,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1475,7 +1519,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1490,7 +1534,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="17"/>
@@ -1505,7 +1549,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1515,7 +1559,9 @@
         <v>86</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="17"/>
     </row>
@@ -1564,7 +1610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1678,16 +1724,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1695,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1789,21 +1835,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1837,15 +1883,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1929,20 +1975,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,21 +2082,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2152,19 +2198,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2298,24 +2344,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
-    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
-    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
-    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2379,12 +2425,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E26A90-72ED-4DCD-AC77-9ED5EA34CDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
   <si>
     <t>AOC</t>
   </si>
@@ -466,9 +460,6 @@
     <t>Raciocinio logico</t>
   </si>
   <si>
-    <t>Cobit 2019 - ITIL v4 - Licitações</t>
-  </si>
-  <si>
     <t xml:space="preserve">Formas normais - Transações/Segurança - </t>
   </si>
   <si>
@@ -496,9 +487,6 @@
     <t>Deficientes</t>
   </si>
   <si>
-    <t xml:space="preserve">BD Fundamentos - </t>
-  </si>
-  <si>
     <t>SQL comandos - Portugues</t>
   </si>
   <si>
@@ -506,12 +494,21 @@
   </si>
   <si>
     <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobit 2019 - ITIL v4 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backup - RLM - </t>
+  </si>
+  <si>
+    <t>Licitações - RAID/DAS/NAS/SAN - QoS - BD Fundamentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,7 +724,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -765,9 +762,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,26 +797,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,26 +832,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1044,11 +1007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,12 +1021,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1083,7 +1046,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1103,12 +1066,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1133,12 +1096,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1146,11 +1109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1247,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1318,7 +1281,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="11">
         <v>44392</v>
@@ -1333,7 +1296,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="11">
         <v>44393</v>
@@ -1350,7 +1313,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="11">
         <v>44394</v>
@@ -1382,7 +1345,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H13" s="11">
         <v>44397</v>
@@ -1399,9 +1362,11 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="H14" s="11">
+        <v>44398</v>
+      </c>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1414,9 +1379,11 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="H15" s="11">
+        <v>44399</v>
+      </c>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1429,7 +1396,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1474,7 +1441,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1610,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1624,7 +1591,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1679,7 +1646,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1724,16 +1691,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1741,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1835,21 +1802,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1883,15 +1850,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1975,24 +1942,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +1974,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2082,21 +2049,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="A4" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,19 +2165,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2269,7 +2236,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2344,24 +2311,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2425,12 +2392,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109CA730-3535-48BE-811D-FE7B0F77AB31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -430,9 +436,6 @@
     <t>Engenharia Conceitos - Teste de Software</t>
   </si>
   <si>
-    <t>BPM/BPMN  - IPv4/IPv6</t>
-  </si>
-  <si>
     <t>IPv4 – Ipv6 - Arquitetura TCP/IP</t>
   </si>
   <si>
@@ -460,9 +463,6 @@
     <t>Raciocinio logico</t>
   </si>
   <si>
-    <t xml:space="preserve">Formas normais - Transações/Segurança - </t>
-  </si>
-  <si>
     <t>Modelagem e Tranformação - BI - Padrões de Projeto</t>
   </si>
   <si>
@@ -496,19 +496,25 @@
     <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cobit 2019 - ITIL v4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backup - RLM - </t>
-  </si>
-  <si>
-    <t>Licitações - RAID/DAS/NAS/SAN - QoS - BD Fundamentos</t>
+    <t xml:space="preserve">Backup - RLM </t>
+  </si>
+  <si>
+    <t>BPM/BPMN  - IPv4/IPv6 - Licitações - RAID/DAS/NAS/SAN - QoS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobit 2019 - ITIL v4 </t>
+  </si>
+  <si>
+    <t>zerado</t>
+  </si>
+  <si>
+    <t>BD Fundamentos - Algebra Relacional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,7 +730,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -762,9 +768,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,9 +803,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -832,9 +855,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,12 +1061,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1046,7 +1086,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1061,7 +1101,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1071,7 +1111,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1096,12 +1136,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1109,11 +1149,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1200,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1179,7 +1219,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1196,7 +1236,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1247,7 +1287,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1281,7 +1321,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H9" s="11">
         <v>44392</v>
@@ -1296,7 +1336,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H10" s="11">
         <v>44393</v>
@@ -1313,7 +1353,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11" s="11">
         <v>44394</v>
@@ -1330,7 +1370,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="11">
         <v>44396</v>
@@ -1362,7 +1402,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H14" s="11">
         <v>44398</v>
@@ -1396,7 +1436,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="17"/>
@@ -1441,7 +1481,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1486,7 +1526,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1577,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1591,7 +1631,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1601,7 +1641,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1646,7 +1686,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1691,16 +1731,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1708,7 +1748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1762,7 +1802,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1802,21 +1842,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1850,15 +1890,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1902,7 +1942,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1942,20 +1982,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1974,7 +2014,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2049,25 +2089,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{332BC971-5955-4187-B094-C4B7BD6CB054}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2122,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2165,19 +2205,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=273"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339"/>
-    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2236,7 +2275,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2311,24 +2350,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
-    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
-    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
-    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2352,7 +2391,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2362,7 +2401,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2392,12 +2431,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109CA730-3535-48BE-811D-FE7B0F77AB31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
   <si>
     <t>AOC</t>
   </si>
@@ -340,9 +334,6 @@
     <t xml:space="preserve"> JEE (JPA, EJB, JSF, JMS e JTA), JVM - JPA - Hibernate</t>
   </si>
   <si>
-    <t>Teste de software (Cespe)</t>
-  </si>
-  <si>
     <t>Orientação a objetos</t>
   </si>
   <si>
@@ -355,12 +346,6 @@
     <t>https://kubernetes.io/pt-br/docs/concepts/overview/components/</t>
   </si>
   <si>
-    <t>Scrum, XP, TDD, Modelagem ágil e Kanban. - CESPE</t>
-  </si>
-  <si>
-    <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Análise de Vulnerabilidade e Gestão de Riscos em Segurança da Informação para CESPE / CEBRASPE | Qconcursos.com - Página 21</t>
   </si>
   <si>
@@ -376,9 +361,6 @@
     <t>Constitucional - Penal</t>
   </si>
   <si>
-    <t>SOA - Webservices SOAP/Restful</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 4 | Qconcursos.com</t>
   </si>
   <si>
@@ -433,9 +415,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Engenharia Conceitos - Teste de Software</t>
-  </si>
-  <si>
     <t>IPv4 – Ipv6 - Arquitetura TCP/IP</t>
   </si>
   <si>
@@ -475,9 +454,6 @@
     <t>Questões de Provas - Questões de Concursos - Página 9 | Qconcursos.com</t>
   </si>
   <si>
-    <t>XP/Scrum - Metricas de software/APF</t>
-  </si>
-  <si>
     <t>Processos de software - UML</t>
   </si>
   <si>
@@ -493,9 +469,6 @@
     <t>Portugues</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Backup - RLM </t>
   </si>
   <si>
@@ -508,13 +481,52 @@
     <t>zerado</t>
   </si>
   <si>
-    <t>BD Fundamentos - Algebra Relacional</t>
+    <t>BD Fundamentos - Cabeamento - LAN/VLAN - Wireless</t>
+  </si>
+  <si>
+    <t>Algebra relacional</t>
+  </si>
+  <si>
+    <t>Algebra Relacional - AOC</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 4</t>
+  </si>
+  <si>
+    <t>Matematica - SOA - Webservices SOAP/Restful</t>
+  </si>
+  <si>
+    <t>SNMP - VPN - LDAP/AD - Metricas de software/APF</t>
+  </si>
+  <si>
+    <t>Criptografia - Transações/Segurança</t>
+  </si>
+  <si>
+    <t>XP/Scrum - 27000 series - Licitações</t>
+  </si>
+  <si>
+    <t>Scrum, XP, TDD, Modelagem ágil</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 12 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>SP - Virtualização - Nuvem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia Conceitos - </t>
+  </si>
+  <si>
+    <t>SO/Servidores/Virtualização - Formas normais - Teste de Software</t>
+  </si>
+  <si>
+    <t>Teste de software</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -730,7 +742,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -768,9 +780,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -803,26 +815,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -855,26 +850,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1047,11 +1025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,17 +1039,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1081,27 +1059,27 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1111,7 +1089,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1136,12 +1114,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1149,11 +1127,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1140,7 @@
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="47.28515625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
@@ -1200,7 +1178,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1219,7 +1197,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1232,11 +1210,11 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1249,7 +1227,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="21">
@@ -1270,7 +1248,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H6" s="11">
         <v>44389</v>
@@ -1287,7 +1265,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1321,7 +1299,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H9" s="11">
         <v>44392</v>
@@ -1336,7 +1314,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H10" s="11">
         <v>44393</v>
@@ -1353,7 +1331,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H11" s="11">
         <v>44394</v>
@@ -1370,7 +1348,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H12" s="11">
         <v>44396</v>
@@ -1385,7 +1363,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H13" s="11">
         <v>44397</v>
@@ -1402,7 +1380,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H14" s="11">
         <v>44398</v>
@@ -1419,7 +1397,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H15" s="11">
         <v>44399</v>
@@ -1436,9 +1414,11 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44400</v>
+      </c>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,9 +1431,11 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="H17" s="11">
+        <v>44401</v>
+      </c>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1466,9 +1448,11 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="H18" s="11">
+        <v>44403</v>
+      </c>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,9 +1465,11 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="H19" s="11">
+        <v>44404</v>
+      </c>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,8 +1481,8 @@
         <v>8</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="G20" s="12" t="s">
-        <v>40</v>
+      <c r="G20" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1511,7 +1497,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1526,7 +1512,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1541,7 +1527,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="17"/>
@@ -1556,7 +1542,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1566,9 +1552,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="G25" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="17"/>
     </row>
@@ -1577,8 +1561,6 @@
         <v>92</v>
       </c>
       <c r="E26" s="11"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="18"/>
       <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1607,7 +1589,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1617,11 +1599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,17 +1613,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1656,7 +1638,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1666,42 +1648,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1711,36 +1693,36 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A20" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=22&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A18" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A16" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A8" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
+    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470"/>
+    <hyperlink ref="A20" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
+    <hyperlink ref="A18" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1748,11 +1730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1792,32 +1774,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1842,22 +1824,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1875,7 +1857,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1884,21 +1866,29 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>132</v>
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=13&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1912,12 +1902,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1942,7 +1932,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1957,12 +1947,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1982,20 +1972,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2024,7 +2014,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2089,25 +2079,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{332BC971-5955-4187-B094-C4B7BD6CB054}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2122,14 +2112,18 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2148,7 +2142,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2168,7 +2162,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2183,7 +2177,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2205,22 +2199,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
+    <hyperlink ref="A16" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2270,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2285,7 +2280,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2330,12 +2325,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -2350,24 +2345,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
+    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2391,22 +2386,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2416,12 +2411,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2431,12 +2426,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5D7D4-5B92-4FF8-8DAC-C41327F6B08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
   <si>
     <t>AOC</t>
   </si>
@@ -410,9 +416,6 @@
   </si>
   <si>
     <t>Questões de Provas - Questões de Concursos - Página 8 | Qconcursos.com</t>
-  </si>
-  <si>
-    <t>Questões de Provas - Questões de Concursos - Página 30 | Qconcursos.com</t>
   </si>
   <si>
     <t>IPv4 – Ipv6 - Arquitetura TCP/IP</t>
@@ -526,7 +529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -742,7 +745,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -780,9 +783,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,9 +818,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -850,9 +870,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1025,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1039,12 +1076,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1064,7 +1101,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1079,7 +1116,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1089,7 +1126,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -1114,12 +1151,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1127,11 +1164,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1215,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="11">
         <v>44383</v>
@@ -1197,7 +1234,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="11">
         <v>44384</v>
@@ -1214,7 +1251,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="11">
         <v>44385</v>
@@ -1265,7 +1302,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H7" s="11">
         <v>44390</v>
@@ -1299,7 +1336,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="11">
         <v>44392</v>
@@ -1314,7 +1351,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="11">
         <v>44393</v>
@@ -1331,7 +1368,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="11">
         <v>44394</v>
@@ -1348,7 +1385,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="11">
         <v>44396</v>
@@ -1363,7 +1400,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="11">
         <v>44397</v>
@@ -1380,7 +1417,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H14" s="11">
         <v>44398</v>
@@ -1397,7 +1434,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H15" s="11">
         <v>44399</v>
@@ -1414,7 +1451,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H16" s="11">
         <v>44400</v>
@@ -1431,7 +1468,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H17" s="11">
         <v>44401</v>
@@ -1448,7 +1485,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H18" s="11">
         <v>44403</v>
@@ -1465,7 +1502,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H19" s="11">
         <v>44404</v>
@@ -1482,9 +1519,11 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="H20" s="11">
+        <v>44405</v>
+      </c>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,7 +1536,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1512,7 +1551,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1542,7 +1581,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1599,11 +1638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1652,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1623,7 +1662,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1638,7 +1677,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1668,7 +1707,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1693,7 +1732,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1703,7 +1742,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1713,16 +1752,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=30&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20795&amp;subject_ids%5B%5D=20796"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679"/>
-    <hyperlink ref="A16" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470"/>
-    <hyperlink ref="A20" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943"/>
-    <hyperlink ref="A18" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A6" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20796" xr:uid="{4431D75D-391A-4AD7-BE96-B8FB27A9A901}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1730,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1784,7 +1823,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1799,7 +1838,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1824,21 +1863,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619"/>
-    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1870,25 +1909,25 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=13&amp;scholarity_ids%5B%5D=3"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=13&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1932,7 +1971,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1972,20 +2011,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2079,21 +2118,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm"/>
-    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=16611" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/direito-legislacao-federal/lei-n-13-709-de-2018-lei-geral-de-protecao-de-dados-pessoais-lgpd-ou-lgpdp/questoes" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.planalto.gov.br/ccivil_03/_ato2011-2014/2012/lei/l12737.htm" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,12 +2151,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2199,19 +2238,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106"/>
-    <hyperlink ref="A16" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339"/>
+    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2270,7 +2309,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2345,24 +2384,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942"/>
-    <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318"/>
-    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844"/>
-    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849"/>
-    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843"/>
-    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358"/>
-    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=61&amp;examining_board_ids%5B%5D=68&amp;examining_board_ids%5B%5D=152&amp;page=19&amp;subject_ids%5B%5D=942" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=1421" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;page=24&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="A22" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=1292&amp;subject_ids%5B%5D=21979" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2386,7 +2425,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2396,7 +2435,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2426,12 +2465,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/tecnologia-da-informacao-seguranca-da-informacao/analise-de-vulnerabilidade-e-gestao-de-riscos" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5D7D4-5B92-4FF8-8DAC-C41327F6B08C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B719723D-D87B-4F15-B05E-A8DE584EE363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,6 @@
     <t xml:space="preserve">Backup - RLM </t>
   </si>
   <si>
-    <t>BPM/BPMN  - IPv4/IPv6 - Licitações - RAID/DAS/NAS/SAN - QoS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cobit 2019 - ITIL v4 </t>
   </si>
   <si>
@@ -517,13 +514,16 @@
     <t>SP - Virtualização - Nuvem</t>
   </si>
   <si>
-    <t xml:space="preserve">Engenharia Conceitos - </t>
-  </si>
-  <si>
     <t>SO/Servidores/Virtualização - Formas normais - Teste de Software</t>
   </si>
   <si>
     <t>Teste de software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - IPv4/IPv6 - Licitações - RAID/DAS/NAS/SAN - QoS</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos - BPM/BPMN</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="11">
         <v>44397</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" s="11">
         <v>44399</v>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H16" s="11">
         <v>44400</v>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="11">
         <v>44401</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H18" s="11">
         <v>44403</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="11">
         <v>44404</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H20" s="11">
         <v>44405</v>
@@ -1536,9 +1536,11 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="H21" s="11">
+        <v>44406</v>
+      </c>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1551,7 +1553,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1581,7 +1583,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1641,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1669,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1732,7 +1734,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1742,7 +1744,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1754,14 +1756,14 @@
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=1679" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A20" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A18" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A6" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20796" xr:uid="{4431D75D-391A-4AD7-BE96-B8FB27A9A901}"/>
+    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A20" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A6" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20796" xr:uid="{4431D75D-391A-4AD7-BE96-B8FB27A9A901}"/>
+    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=1679" xr:uid="{492892B7-979F-4BBC-81EC-E630879B6031}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1909,12 +1911,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1930,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,12 +2153,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B719723D-D87B-4F15-B05E-A8DE584EE363}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1147634-A6B9-440A-B009-8A8C73340C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
   <si>
     <t>AOC</t>
   </si>
@@ -499,9 +499,6 @@
     <t>SNMP - VPN - LDAP/AD - Metricas de software/APF</t>
   </si>
   <si>
-    <t>Criptografia - Transações/Segurança</t>
-  </si>
-  <si>
     <t>XP/Scrum - 27000 series - Licitações</t>
   </si>
   <si>
@@ -520,10 +517,22 @@
     <t>Teste de software</t>
   </si>
   <si>
-    <t xml:space="preserve">  - IPv4/IPv6 - Licitações - RAID/DAS/NAS/SAN - QoS</t>
-  </si>
-  <si>
     <t>Engenharia Conceitos - BPM/BPMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Gestão de config./Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - IPv4/IPv6 -  - RAID/DAS/NAS/SAN - QoS</t>
+  </si>
+  <si>
+    <t>Engenharia de Requisitos - Licitações</t>
+  </si>
+  <si>
+    <t>MPSBR - Criptografia - Transações/Segurança</t>
+  </si>
+  <si>
+    <t>metodos de acesso - controles de acesso(discricionario - mandatario)</t>
   </si>
 </sst>
 </file>
@@ -1167,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +1494,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="11">
         <v>44403</v>
@@ -1502,7 +1511,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H19" s="11">
         <v>44404</v>
@@ -1519,7 +1528,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H20" s="11">
         <v>44405</v>
@@ -1536,10 +1545,10 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H21" s="11">
-        <v>44406</v>
+        <v>44410</v>
       </c>
       <c r="I21" s="17"/>
     </row>
@@ -1553,9 +1562,11 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="H22" s="11">
+        <v>44411</v>
+      </c>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1568,7 +1579,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="17"/>
@@ -1593,7 +1604,9 @@
         <v>86</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="17"/>
     </row>
@@ -1734,7 +1747,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1744,7 +1757,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1911,12 +1924,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1932,7 +1945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2138,7 +2151,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2226,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2229,6 +2242,11 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
@@ -2240,12 +2258,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A16" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="A12" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A16" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{C373D478-A410-4607-9F9D-85A914AD544C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2432,7 +2450,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2472,7 +2490,7 @@
     <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
     <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
     <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
+    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=9&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{607CFADA-2CB3-4562-AD0E-E4ED81B55646}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1147634-A6B9-440A-B009-8A8C73340C38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56301B1-043C-4C39-881E-E85023AD43B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,9 +490,6 @@
     <t>Algebra Relacional - AOC</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 4</t>
-  </si>
-  <si>
     <t>Matematica - SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
@@ -520,12 +517,6 @@
     <t>Engenharia Conceitos - BPM/BPMN</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Gestão de config./Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - IPv4/IPv6 -  - RAID/DAS/NAS/SAN - QoS</t>
-  </si>
-  <si>
     <t>Engenharia de Requisitos - Licitações</t>
   </si>
   <si>
@@ -533,6 +524,15 @@
   </si>
   <si>
     <t>metodos de acesso - controles de acesso(discricionario - mandatario)</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - IPv4/IPv6 -  - RAID/DAS/NAS/SAN - QoS - Gestão de config./Git</t>
+  </si>
+  <si>
+    <t>Matematica - Portugues</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1163,9 +1163,9 @@
     <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{CE38212C-96D6-4355-9EC8-D4B87AB44D28}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{24ECFACD-6803-4A52-B2AE-509887EC32AF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="11">
         <v>44401</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H18" s="11">
         <v>44403</v>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="11">
         <v>44404</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="11">
         <v>44405</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H21" s="11">
         <v>44410</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H22" s="11">
         <v>44411</v>
@@ -1579,9 +1579,11 @@
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="H23" s="11">
+        <v>44412</v>
+      </c>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1594,7 +1596,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1605,7 +1607,7 @@
       </c>
       <c r="E25" s="11"/>
       <c r="G25" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="17"/>
@@ -1747,7 +1749,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1757,7 +1759,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1924,12 +1926,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2246,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56301B1-043C-4C39-881E-E85023AD43B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F02DF-DE2B-4F63-97BB-88D4BAA09C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>AOC</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Questões de Concurso sobre Lei 12.965 de 2014 - Marco Civil da Internet em Legislação Federal | Qconcursos.com - Página 5</t>
   </si>
   <si>
-    <t>BPMN - Geral</t>
-  </si>
-  <si>
     <t xml:space="preserve"> JEE (JPA, EJB, JSF, JMS e JTA), JVM - JPA - Hibernate</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Conceitos de segurança - CESPE</t>
   </si>
   <si>
-    <t>Questões de Modelagem de Processos de Negócio (BPM) - BPMN (Bussines Process Modeling Notation) para Concurso - Página 11 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Licitações - Deficientes</t>
   </si>
   <si>
@@ -379,12 +373,6 @@
     <t>Constitucional - Principais bancas</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos | Qconcursos.com</t>
-  </si>
-  <si>
-    <t>Gerencia de Projetos - PMBoK</t>
-  </si>
-  <si>
     <t>Gestão de Projetos - Principais bancas</t>
   </si>
   <si>
@@ -433,72 +421,30 @@
     <t>Engenharia de Requisitos</t>
   </si>
   <si>
-    <t>Matematica</t>
-  </si>
-  <si>
-    <t>Portugues - Constitucional</t>
-  </si>
-  <si>
     <t>Raciocinio Logico</t>
   </si>
   <si>
-    <t>Raciocinio logico</t>
-  </si>
-  <si>
-    <t>Modelagem e Tranformação - BI - Padrões de Projeto</t>
-  </si>
-  <si>
     <t>Padrões de Projetos</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
     <t>Questões de Provas - Questões de Concursos - Página 9 | Qconcursos.com</t>
   </si>
   <si>
-    <t>Processos de software - UML</t>
-  </si>
-  <si>
     <t>Portugues - Deficientes</t>
   </si>
   <si>
     <t>Deficientes</t>
   </si>
   <si>
-    <t>SQL comandos - Portugues</t>
-  </si>
-  <si>
     <t>Portugues</t>
   </si>
   <si>
-    <t xml:space="preserve">Backup - RLM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobit 2019 - ITIL v4 </t>
-  </si>
-  <si>
-    <t>zerado</t>
-  </si>
-  <si>
-    <t>BD Fundamentos - Cabeamento - LAN/VLAN - Wireless</t>
-  </si>
-  <si>
     <t>Algebra relacional</t>
   </si>
   <si>
-    <t>Algebra Relacional - AOC</t>
-  </si>
-  <si>
     <t>Matematica - SOA - Webservices SOAP/Restful</t>
   </si>
   <si>
-    <t>SNMP - VPN - LDAP/AD - Metricas de software/APF</t>
-  </si>
-  <si>
-    <t>XP/Scrum - 27000 series - Licitações</t>
-  </si>
-  <si>
     <t>Scrum, XP, TDD, Modelagem ágil</t>
   </si>
   <si>
@@ -514,25 +460,94 @@
     <t>Teste de software</t>
   </si>
   <si>
-    <t>Engenharia Conceitos - BPM/BPMN</t>
-  </si>
-  <si>
-    <t>Engenharia de Requisitos - Licitações</t>
-  </si>
-  <si>
     <t>MPSBR - Criptografia - Transações/Segurança</t>
   </si>
   <si>
     <t>metodos de acesso - controles de acesso(discricionario - mandatario)</t>
   </si>
   <si>
-    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - IPv4/IPv6 -  - RAID/DAS/NAS/SAN - QoS - Gestão de config./Git</t>
-  </si>
-  <si>
-    <t>Matematica - Portugues</t>
+    <t>Matematica - Portugues - Penal</t>
+  </si>
+  <si>
+    <t>SNMP/Voip/QoS/LDAP/AD - Metricas de software/APF</t>
+  </si>
+  <si>
+    <t>IPv4/IPv6 -  - RAID/DAS/NAS/SAN - Gestão de config./Git</t>
+  </si>
+  <si>
+    <t>Constitucional - Gerencia de Projetos - PMBoK</t>
+  </si>
+  <si>
+    <t>Portugues - Modelagem e Tranformação</t>
+  </si>
+  <si>
+    <t>negação e equivalencia - Bi Condicional</t>
+  </si>
+  <si>
+    <t>Raciocinio logico - Padrões de Projeto - Atos administrativos</t>
+  </si>
+  <si>
+    <t>8112 - UML</t>
+  </si>
+  <si>
+    <t>BI - JavaEE - JPA/Hibernate</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 14 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Processos de software - SQL comandos</t>
+  </si>
+  <si>
+    <t>produto cartesiano</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 8</t>
+  </si>
+  <si>
+    <t>Matematica - Cobit 2019</t>
+  </si>
+  <si>
+    <t>XP/Scrum -  - Licitações</t>
+  </si>
+  <si>
+    <t>RLM - 27000 series</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BPM/BPMN -  - ITIL v4 </t>
+  </si>
+  <si>
+    <t>Penal</t>
+  </si>
+  <si>
+    <t>Questões de Concurso sobre Direito Penal para VUNESP e Escrevente Técnico Judiciário | Qconcursos.com - Página 3</t>
+  </si>
+  <si>
+    <t>Backup -  Improbidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebra Relacional - </t>
+  </si>
+  <si>
+    <t>BD Fundamentos - AOC</t>
+  </si>
+  <si>
+    <t>tipos de endereçamento - direto imediato ...</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 16 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Licitações</t>
+  </si>
+  <si>
+    <t>Cabeamento/LAN/VLAN/Wireless - Engenharia de Requisitos</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1090,7 @@
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,69 +1100,78 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -1160,15 +1184,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;subject_ids%5B%5D=49&amp;subject_ids%5B%5D=437&amp;subject_ids%5B%5D=438&amp;subject_ids%5B%5D=1418&amp;subject_ids%5B%5D=1979&amp;subject_ids%5B%5D=16249&amp;subject_ids%5B%5D=16265&amp;subject_ids%5B%5D=16268&amp;subject_ids%5B%5D=16321&amp;subject_ids%5B%5D=20760&amp;subject_ids%5B%5D=20761&amp;subject_ids%5B%5D=20762&amp;subject_ids%5B%5D=20763&amp;subject_ids%5B%5D=20764&amp;subject_ids%5B%5D=20765" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{CE38212C-96D6-4355-9EC8-D4B87AB44D28}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;scholarity_ids%5B%5D=3" xr:uid="{24ECFACD-6803-4A52-B2AE-509887EC32AF}"/>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;institute_ids%5B%5D=6&amp;institute_ids%5B%5D=10&amp;institute_ids%5B%5D=40&amp;institute_ids%5B%5D=51&amp;institute_ids%5B%5D=59&amp;institute_ids%5B%5D=61&amp;institute_ids%5B%5D=62&amp;institute_ids%5B%5D=63&amp;institute_ids%5B%5D=64&amp;institute_ids%5B%5D=65&amp;institute_ids%5B%5D=66&amp;institute_ids%5B%5D=70&amp;institute_ids%5B%5D=71&amp;institute_ids%5B%5D=72&amp;institute_ids%5B%5D=93&amp;institute_ids%5B%5D=94&amp;institute_ids%5B%5D=95&amp;page=7" xr:uid="{33BE1906-4068-4683-AD2D-88E65CDE12E8}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{4BA3FBB3-749E-4109-BB46-B7C3B9E17637}"/>
+    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;scholarity_ids%5B%5D=3" xr:uid="{AB210DE4-EBE5-47B0-913B-704DDA4B005E}"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7" xr:uid="{9EAF1A8A-852C-4B66-8715-06B59DD4A0E5}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{078B7DE0-1668-428B-B5F1-A85464B4EB0B}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3" xr:uid="{B28AF329-E465-449E-93A8-C76CDB82231A}"/>
+    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=9&amp;examining_board_ids%5B%5D=152&amp;job_ids%5B%5D=6644&amp;page=3" xr:uid="{57BAEDD2-B976-42E5-B8DC-DD648C3F6EFB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1177,7 +1202,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,10 +1249,10 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H2" s="11">
-        <v>44383</v>
+        <v>44417</v>
       </c>
       <c r="I2" s="18"/>
     </row>
@@ -1243,10 +1268,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H3" s="11">
-        <v>44384</v>
+        <v>44418</v>
       </c>
       <c r="I3" s="18"/>
     </row>
@@ -1256,14 +1281,14 @@
         <v>44270</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H4" s="11">
-        <v>44385</v>
+        <v>44419</v>
       </c>
       <c r="I4" s="18"/>
     </row>
@@ -1273,14 +1298,14 @@
       </c>
       <c r="B5" s="9"/>
       <c r="D5" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E5" s="11"/>
-      <c r="G5" s="21">
-        <v>8112</v>
+      <c r="G5" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="H5" s="11">
-        <v>44387</v>
+        <v>44420</v>
       </c>
       <c r="I5" s="18"/>
     </row>
@@ -1293,11 +1318,11 @@
         <v>69</v>
       </c>
       <c r="E6" s="11"/>
-      <c r="G6" s="14" t="s">
-        <v>117</v>
+      <c r="G6" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="H6" s="11">
-        <v>44389</v>
+        <v>44421</v>
       </c>
       <c r="I6" s="18"/>
     </row>
@@ -1311,10 +1336,10 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="H7" s="11">
-        <v>44390</v>
+        <v>44424</v>
       </c>
       <c r="I7" s="18"/>
     </row>
@@ -1327,11 +1352,11 @@
         <v>65</v>
       </c>
       <c r="E8" s="11"/>
-      <c r="G8" s="10" t="s">
-        <v>76</v>
+      <c r="G8" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="H8" s="11">
-        <v>44391</v>
+        <v>44425</v>
       </c>
       <c r="I8" s="17"/>
     </row>
@@ -1344,11 +1369,11 @@
         <v>66</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="G9" s="12" t="s">
-        <v>142</v>
+      <c r="G9" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="H9" s="11">
-        <v>44392</v>
+        <v>44426</v>
       </c>
       <c r="I9" s="17"/>
     </row>
@@ -1360,10 +1385,10 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H10" s="11">
-        <v>44393</v>
+        <v>44427</v>
       </c>
       <c r="I10" s="17"/>
     </row>
@@ -1376,11 +1401,11 @@
         <v>71</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="G11" s="10" t="s">
-        <v>145</v>
+      <c r="G11" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="H11" s="11">
-        <v>44394</v>
+        <v>44428</v>
       </c>
       <c r="I11" s="17"/>
     </row>
@@ -1393,11 +1418,11 @@
         <v>62</v>
       </c>
       <c r="E12" s="11"/>
-      <c r="G12" s="14" t="s">
-        <v>134</v>
+      <c r="G12" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="H12" s="11">
-        <v>44396</v>
+        <v>44431</v>
       </c>
       <c r="I12" s="17"/>
     </row>
@@ -1409,10 +1434,10 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="H13" s="11">
-        <v>44397</v>
+        <v>44432</v>
       </c>
       <c r="I13" s="17"/>
     </row>
@@ -1425,11 +1450,11 @@
         <v>56</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="G14" s="10" t="s">
-        <v>147</v>
+      <c r="G14" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="H14" s="11">
-        <v>44398</v>
+        <v>44433</v>
       </c>
       <c r="I14" s="17"/>
     </row>
@@ -1443,11 +1468,9 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="11">
-        <v>44399</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="H15" s="11"/>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1459,12 +1482,10 @@
         <v>57</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="G16" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="11">
-        <v>44400</v>
-      </c>
+      <c r="G16" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="11"/>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,12 +1497,10 @@
         <v>58</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="G17" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="11">
-        <v>44401</v>
-      </c>
+      <c r="G17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1494,11 +1513,9 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="11">
-        <v>44403</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H18" s="11"/>
       <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1510,12 +1527,10 @@
         <v>81</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="G19" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="11">
-        <v>44404</v>
-      </c>
+      <c r="G19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="11"/>
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,11 +1543,9 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="11">
-        <v>44405</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="H20" s="11"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1545,11 +1558,9 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H21" s="11">
-        <v>44410</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H21" s="11"/>
       <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1562,11 +1573,9 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="11">
-        <v>44411</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H22" s="11"/>
       <c r="I22" s="17"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,11 +1588,9 @@
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="11">
-        <v>44412</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="H23" s="11"/>
       <c r="I23" s="17"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1596,7 +1603,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1606,9 +1613,7 @@
         <v>86</v>
       </c>
       <c r="E25" s="11"/>
-      <c r="G25" s="10" t="s">
-        <v>166</v>
-      </c>
+      <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="17"/>
     </row>
@@ -1645,7 +1650,7 @@
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1669,22 +1674,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1704,42 +1709,42 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -1749,17 +1754,17 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1769,16 +1774,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=311" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=9170" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=20795" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=2470" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="A20" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A6" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20796" xr:uid="{4431D75D-391A-4AD7-BE96-B8FB27A9A901}"/>
-    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;subject_ids%5B%5D=1679" xr:uid="{492892B7-979F-4BBC-81EC-E630879B6031}"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A16" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A20" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20796" xr:uid="{4431D75D-391A-4AD7-BE96-B8FB27A9A901}"/>
+    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=311" xr:uid="{E28ACB97-A60B-48C1-9672-4D492B9813D0}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;subject_ids%5B%5D=9170" xr:uid="{ABBC9637-355C-4077-BA1C-6B748D216E26}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;subject_ids%5B%5D=2470" xr:uid="{F9B96E9E-98BF-4F46-B4B8-7E9F4741E8EF}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12&amp;subject_ids%5B%5D=20795" xr:uid="{6D7EFD14-AC5A-43FF-B506-007277479D14}"/>
+    <hyperlink ref="A4" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=13&amp;subject_ids%5B%5D=1679" xr:uid="{5E37AA7B-B240-4F81-A552-85D0903D48FD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
@@ -1800,12 +1805,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1830,32 +1835,32 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1883,11 +1888,11 @@
     <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=15&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4599&amp;subject_ids%5B%5D=5117&amp;subject_ids%5B%5D=5885&amp;subject_ids%5B%5D=6327&amp;subject_ids%5B%5D=16605&amp;subject_ids%5B%5D=16616&amp;subject_ids%5B%5D=16619" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A14" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=269" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="A16" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=266" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=16614" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=6&amp;subject_ids%5B%5D=21360" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A2" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=2632&amp;subject_ids%5B%5D=3065&amp;subject_ids%5B%5D=16611&amp;subject_ids%5B%5D=16614" xr:uid="{2B3A1078-0ECA-420D-AFA8-32CA1CD0F28B}"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=9&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=265&amp;subject_ids%5B%5D=16610&amp;subject_ids%5B%5D=23841" xr:uid="{51118C33-B82F-4827-AFDD-67B168CFA7A4}"/>
+    <hyperlink ref="A12" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;subject_ids%5B%5D=266&amp;subject_ids%5B%5D=269&amp;subject_ids%5B%5D=4597&amp;subject_ids%5B%5D=16617" xr:uid="{457FAD94-0E33-43B1-8A80-309F51890F39}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1895,7 +1900,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -1913,7 +1918,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1926,18 +1931,23 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=13&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=94&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=12" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=93&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=16&amp;scholarity_ids%5B%5D=3" xr:uid="{C50DC856-3058-4D87-A3B0-DEA086A7AE7E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1945,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,12 +1968,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1988,53 +1998,42 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=36&amp;subject_ids%5B%5D=305&amp;subject_ids%5B%5D=10772" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=5877" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=5177" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
     <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=99&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=13&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=17583" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/disciplinas/administracao-modelagem-de-processos-de-negocio-bpm/bpmn-bussines-process-modeling-notation/questoes?page=11" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=118&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;scholarity_ids%5B%5D=3" xr:uid="{961AAEF6-7EAF-452B-8DA4-67E8C6D82689}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=489&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8" xr:uid="{D7CD93C3-37A6-45C6-AD5C-220E85B11ACF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2060,7 +2059,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2070,7 +2069,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2141,8 +2140,8 @@
     <hyperlink ref="A18" r:id="rId4" display="http://www.planalto.gov.br/ccivil_03/_ato2015-2018/2018/decreto/D9637.htm" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
     <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;examining_board_ids%5B%5D=2&amp;page=13&amp;subject_ids%5B%5D=22750" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
     <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=53&amp;page=5&amp;subject_ids%5B%5D=20926" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=7&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=95&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=8&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=4488&amp;subject_ids%5B%5D=5118&amp;subject_ids%5B%5D=5882&amp;subject_ids%5B%5D=16620&amp;subject_ids%5B%5D=16636" xr:uid="{DC3DD83D-BE29-48BD-8910-58D7729CAFD5}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=282" xr:uid="{AA623501-C787-4841-8A39-BF2C19F6000F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2153,7 +2152,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,17 +2167,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -2188,7 +2187,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2198,7 +2197,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2228,17 +2227,17 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2246,7 +2245,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2260,12 +2264,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=4536" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="A12" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{C373D478-A410-4607-9F9D-85A914AD544C}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=4&amp;subject_ids%5B%5D=272" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=3339" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A14" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=277&amp;subject_ids%5B%5D=4534&amp;subject_ids%5B%5D=5554&amp;subject_ids%5B%5D=6106" xr:uid="{C373D478-A410-4607-9F9D-85A914AD544C}"/>
+    <hyperlink ref="A16" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=9&amp;subject_ids%5B%5D=280&amp;subject_ids%5B%5D=6096" xr:uid="{932EFA4D-D941-4E8E-9892-E63FD0396E80}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=9&amp;subject_ids%5B%5D=276&amp;subject_ids%5B%5D=1825&amp;subject_ids%5B%5D=4053&amp;subject_ids%5B%5D=4101&amp;subject_ids%5B%5D=4926&amp;subject_ids%5B%5D=4935&amp;subject_ids%5B%5D=5262&amp;subject_ids%5B%5D=5595&amp;subject_ids%5B%5D=26271" xr:uid="{B93C61AC-187A-4579-BBF8-7AABEAF735E9}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=4536" xr:uid="{8F676B49-AE8D-40CE-8577-C5FA47003146}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=96&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=273&amp;subject_ids%5B%5D=274&amp;subject_ids%5B%5D=275&amp;subject_ids%5B%5D=5554" xr:uid="{A4559E34-945B-4563-AAEA-CA53735DDA66}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2276,7 +2281,7 @@
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2330,9 +2335,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2366,12 +2369,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2386,12 +2389,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -2415,8 +2418,8 @@
     <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=152&amp;page=37&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=939&amp;subject_ids%5B%5D=20849" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
     <hyperlink ref="A24" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=2&amp;page=18&amp;subject_ids%5B%5D=843" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
     <hyperlink ref="A26" r:id="rId9" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=942&amp;subject_ids%5B%5D=2751&amp;subject_ids%5B%5D=4358" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="A20" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=503&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=7&amp;subject_ids%5B%5D=9194&amp;subject_ids%5B%5D=9195&amp;subject_ids%5B%5D=9196&amp;subject_ids%5B%5D=9310&amp;subject_ids%5B%5D=10426&amp;subject_ids%5B%5D=11073&amp;subject_ids%5B%5D=18037" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="A20" r:id="rId11" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=160&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=14&amp;subject_ids%5B%5D=940&amp;subject_ids%5B%5D=2746&amp;subject_ids%5B%5D=3521&amp;subject_ids%5B%5D=5243&amp;subject_ids%5B%5D=5470&amp;subject_ids%5B%5D=14147&amp;subject_ids%5B%5D=20844" xr:uid="{ED0D084D-2664-4D33-BE45-3DED13C9691B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2427,7 +2430,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,22 +2450,22 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -2472,12 +2475,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -2491,8 +2494,8 @@
     <hyperlink ref="A2" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=34&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=290&amp;subject_ids%5B%5D=1336&amp;subject_ids%5B%5D=2080&amp;subject_ids%5B%5D=3921&amp;subject_ids%5B%5D=5171&amp;subject_ids%5B%5D=6112&amp;subject_ids%5B%5D=20751&amp;subject_ids%5B%5D=20753" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
     <hyperlink ref="A8" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=21&amp;subject_ids%5B%5D=293" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
     <hyperlink ref="A11" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=2&amp;page=10&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=1778" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=4&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="A4" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=9&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{607CFADA-2CB3-4562-AD0E-E4ED81B55646}"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=9&amp;subject_ids%5B%5D=285&amp;subject_ids%5B%5D=289&amp;subject_ids%5B%5D=292&amp;subject_ids%5B%5D=2666&amp;subject_ids%5B%5D=4642&amp;subject_ids%5B%5D=4938&amp;subject_ids%5B%5D=5170&amp;subject_ids%5B%5D=6038" xr:uid="{607CFADA-2CB3-4562-AD0E-E4ED81B55646}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=97&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=9&amp;subject_ids%5B%5D=291&amp;subject_ids%5B%5D=4419&amp;subject_ids%5B%5D=5306" xr:uid="{C5BB5B68-1023-4D21-80FF-D5578A0C5AFA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/qconcursos.xlsx
+++ b/qconcursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\will-\Desktop\estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F02DF-DE2B-4F63-97BB-88D4BAA09C24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6F798-3E5E-447B-9489-C7A4F530CD41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basicas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="174">
   <si>
     <t>AOC</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Algebra relacional</t>
   </si>
   <si>
-    <t>Matematica - SOA - Webservices SOAP/Restful</t>
-  </si>
-  <si>
     <t>Scrum, XP, TDD, Modelagem ágil</t>
   </si>
   <si>
@@ -502,39 +499,21 @@
     <t>produto cartesiano</t>
   </si>
   <si>
-    <t>Questões de Provas - Questões de Concursos - Página 22 | Qconcursos.com</t>
-  </si>
-  <si>
     <t>Questões de Concurso sobre Matemática para VUNESP nível Superior | Qconcursos.com - Página 8</t>
   </si>
   <si>
     <t>Matematica - Cobit 2019</t>
   </si>
   <si>
-    <t>XP/Scrum -  - Licitações</t>
-  </si>
-  <si>
     <t>RLM - 27000 series</t>
   </si>
   <si>
-    <t>Engenharia Conceitos -</t>
-  </si>
-  <si>
     <t xml:space="preserve">BPM/BPMN -  - ITIL v4 </t>
   </si>
   <si>
-    <t>Penal</t>
-  </si>
-  <si>
-    <t>Questões de Concurso sobre Direito Penal para VUNESP e Escrevente Técnico Judiciário | Qconcursos.com - Página 3</t>
-  </si>
-  <si>
     <t>Backup -  Improbidade</t>
   </si>
   <si>
-    <t xml:space="preserve">Algebra Relacional - </t>
-  </si>
-  <si>
     <t>BD Fundamentos - AOC</t>
   </si>
   <si>
@@ -548,6 +527,30 @@
   </si>
   <si>
     <t>Cabeamento/LAN/VLAN/Wireless - Engenharia de Requisitos</t>
+  </si>
+  <si>
+    <t>Algebra Relacional -  SOA - Webservices SOAP/Restful</t>
+  </si>
+  <si>
+    <t>divisão</t>
+  </si>
+  <si>
+    <t>Improbidade</t>
+  </si>
+  <si>
+    <t>Engenharia Conceitos - Matematica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  - Licitações</t>
+  </si>
+  <si>
+    <t>Portugues - XP/Scrum</t>
+  </si>
+  <si>
+    <t>Questões de Provas - Questões de Concursos - Página 25 | Qconcursos.com</t>
+  </si>
+  <si>
+    <t>Penal - Crimes contra adm. -Vunesp</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1125,7 +1128,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -1160,24 +1163,31 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>165</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>150</v>
+      <c r="A16" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1186,14 +1196,15 @@
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=3&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;institute_ids%5B%5D=6&amp;institute_ids%5B%5D=10&amp;institute_ids%5B%5D=40&amp;institute_ids%5B%5D=51&amp;institute_ids%5B%5D=59&amp;institute_ids%5B%5D=61&amp;institute_ids%5B%5D=62&amp;institute_ids%5B%5D=63&amp;institute_ids%5B%5D=64&amp;institute_ids%5B%5D=65&amp;institute_ids%5B%5D=66&amp;institute_ids%5B%5D=70&amp;institute_ids%5B%5D=71&amp;institute_ids%5B%5D=72&amp;institute_ids%5B%5D=93&amp;institute_ids%5B%5D=94&amp;institute_ids%5B%5D=95&amp;page=7" xr:uid="{33BE1906-4068-4683-AD2D-88E65CDE12E8}"/>
     <hyperlink ref="A4" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=11&amp;scholarity_ids%5B%5D=3&amp;subject_ids%5B%5D=9&amp;subject_ids%5B%5D=1269" xr:uid="{4BA3FBB3-749E-4109-BB46-B7C3B9E17637}"/>
-    <hyperlink ref="A2" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=22&amp;scholarity_ids%5B%5D=3" xr:uid="{AB210DE4-EBE5-47B0-913B-704DDA4B005E}"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7" xr:uid="{9EAF1A8A-852C-4B66-8715-06B59DD4A0E5}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{078B7DE0-1668-428B-B5F1-A85464B4EB0B}"/>
-    <hyperlink ref="A10" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3" xr:uid="{B28AF329-E465-449E-93A8-C76CDB82231A}"/>
-    <hyperlink ref="A14" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=9&amp;examining_board_ids%5B%5D=152&amp;job_ids%5B%5D=6644&amp;page=3" xr:uid="{57BAEDD2-B976-42E5-B8DC-DD648C3F6EFB}"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=579&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=7" xr:uid="{9EAF1A8A-852C-4B66-8715-06B59DD4A0E5}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=13&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;scholarity_ids%5B%5D=3" xr:uid="{078B7DE0-1668-428B-B5F1-A85464B4EB0B}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=4&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=152&amp;page=10&amp;scholarity_ids%5B%5D=3" xr:uid="{B28AF329-E465-449E-93A8-C76CDB82231A}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=2&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=6&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=16073" xr:uid="{F1F2C811-7559-4C30-B47F-30BA053BE250}"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=1&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=25&amp;scholarity_ids%5B%5D=3" xr:uid="{07744D98-E7D3-44A1-8DE6-22C0F8CFACFF}"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=9&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=17398&amp;subject_ids%5B%5D=17399" xr:uid="{BC1FA73D-D53E-40D6-BAEF-022394A83AC0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1201,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1260,7 @@
       </c>
       <c r="E2" s="11"/>
       <c r="G2" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="11">
         <v>44417</v>
@@ -1268,7 +1279,7 @@
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" s="11">
         <v>44418</v>
@@ -1285,7 +1296,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="11">
         <v>44419</v>
@@ -1302,7 +1313,7 @@
       </c>
       <c r="E5" s="11"/>
       <c r="G5" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="11">
         <v>44420</v>
@@ -1319,7 +1330,7 @@
       </c>
       <c r="E6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H6" s="11">
         <v>44421</v>
@@ -1336,7 +1347,7 @@
       </c>
       <c r="E7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H7" s="11">
         <v>44424</v>
@@ -1370,7 +1381,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H9" s="11">
         <v>44426</v>
@@ -1385,7 +1396,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="G10" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="11">
         <v>44427</v>
@@ -1402,7 +1413,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="G11" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H11" s="11">
         <v>44428</v>
@@ -1419,7 +1430,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="G12" s="10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H12" s="11">
         <v>44431</v>
@@ -1434,7 +1445,7 @@
       </c>
       <c r="E13" s="11"/>
       <c r="G13" s="10" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H13" s="11">
         <v>44432</v>
@@ -1451,7 +1462,7 @@
       </c>
       <c r="E14" s="11"/>
       <c r="G14" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H14" s="11">
         <v>44433</v>
@@ -1468,9 +1479,11 @@
       </c>
       <c r="E15" s="11"/>
       <c r="G15" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="11"/>
+        <v>166</v>
+      </c>
+      <c r="H15" s="11">
+        <v>44434</v>
+      </c>
       <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1483,9 +1496,11 @@
       </c>
       <c r="E16" s="11"/>
       <c r="G16" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="11"/>
+        <v>171</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44435</v>
+      </c>
       <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1498,7 +1513,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="G17" s="12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="17"/>
@@ -1513,7 +1528,7 @@
       </c>
       <c r="E18" s="11"/>
       <c r="G18" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="17"/>
@@ -1528,7 +1543,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="G19" s="10" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="17"/>
@@ -1543,7 +1558,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="17"/>
@@ -1558,7 +1573,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="G21" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="17"/>
@@ -1573,7 +1588,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="G22" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="17"/>
@@ -1588,7 +1603,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="17"/>
@@ -1603,7 +1618,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="17"/>
@@ -1663,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,7 +1744,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -1754,7 +1769,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1764,26 +1779,26 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=3&amp;subject_ids%5B%5D=1656" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="A16" r:id="rId2" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=16&amp;examining_board_ids%5B%5D=152&amp;examining_board_ids%5B%5D=379&amp;page=5&amp;subject_ids%5B%5D=318" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="A20" r:id="rId3" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=6&amp;subject_ids%5B%5D=1656&amp;subject_ids%5B%5D=3062&amp;subject_ids%5B%5D=5294&amp;subject_ids%5B%5D=5943" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="A18" r:id="rId4" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=8&amp;subject_ids%5B%5D=316" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp;examining_board_ids%5B%5D=2&amp;examining_board_ids%5B%5D=5&amp;examining_board_ids%5B%5D=152&amp;page=5&amp;subject_ids%5B%5D=319&amp;subject_ids%5B%5D=2433&amp;subject_ids%5B%5D=4201&amp;subject_ids%5B%5D=6108&amp;subject_ids%5B%5D=6110&amp;subject_ids%5B%5D=20796" xr:uid="{4431D75D-391A-4AD7-BE96-B8FB27A9A901}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.qconcursos.com/questoes-de-concursos/questoes?discipline_ids%5B%5D=100&amp;examining_board_ids%5B%5D=1&amp